--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_17_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_17_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2209794.184329554</v>
+        <v>2209057.90762264</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681863</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.5290748744748</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>260.9307006383673</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.1065283636207</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1409409833356</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>68.56143595979201</v>
+        <v>125.4073253180532</v>
       </c>
       <c r="I11" t="n">
-        <v>62.73949387512455</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.68024160140133</v>
       </c>
       <c r="T11" t="n">
-        <v>98.47307515310011</v>
+        <v>98.47307515310014</v>
       </c>
       <c r="U11" t="n">
         <v>129.2483093153382</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.3458864055992</v>
       </c>
       <c r="W11" t="n">
         <v>228.3427818836344</v>
@@ -1436,7 +1436,7 @@
         <v>248.6742640142492</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.4997366343156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.18479049342461</v>
+        <v>43.18479049342464</v>
       </c>
       <c r="C12" t="n">
-        <v>48.83824881048078</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>23.92508845772535</v>
+        <v>23.92508845772538</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>21.31889696662908</v>
+        <v>137.4022199968247</v>
       </c>
       <c r="G12" t="n">
-        <v>135.7415135932285</v>
+        <v>13.55417847630834</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.8782434306668</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.20507959952954</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>163.7292228923487</v>
       </c>
       <c r="T12" t="n">
-        <v>197.2470968808262</v>
+        <v>75.05976176390605</v>
       </c>
       <c r="U12" t="n">
-        <v>102.4513092784511</v>
+        <v>102.4513092784512</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>109.7213959227349</v>
       </c>
       <c r="W12" t="n">
-        <v>127.8020116330798</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.48381630166581</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.8963563737636</v>
+        <v>57.89635637376362</v>
       </c>
       <c r="C13" t="n">
-        <v>45.14921781428212</v>
+        <v>45.14921781428215</v>
       </c>
       <c r="D13" t="n">
-        <v>26.81823139759915</v>
+        <v>26.81823139759918</v>
       </c>
       <c r="E13" t="n">
-        <v>24.78728905627896</v>
+        <v>24.78728905627899</v>
       </c>
       <c r="F13" t="n">
-        <v>23.97168629288429</v>
+        <v>23.97168629288431</v>
       </c>
       <c r="G13" t="n">
-        <v>45.46608883664566</v>
+        <v>45.46608883664568</v>
       </c>
       <c r="H13" t="n">
-        <v>37.34701555510328</v>
+        <v>37.34701555510334</v>
       </c>
       <c r="I13" t="n">
-        <v>24.46908674955998</v>
+        <v>24.46908674956002</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.58497642579218</v>
+        <v>40.58497642579222</v>
       </c>
       <c r="S13" t="n">
-        <v>96.05436038967154</v>
+        <v>96.05436038967157</v>
       </c>
       <c r="T13" t="n">
         <v>105.1360623384526</v>
@@ -1585,16 +1585,16 @@
         <v>163.8520535481508</v>
       </c>
       <c r="V13" t="n">
-        <v>130.7490159500189</v>
+        <v>130.749015950019</v>
       </c>
       <c r="W13" t="n">
-        <v>163.9052417704953</v>
+        <v>163.9052417704954</v>
       </c>
       <c r="X13" t="n">
-        <v>103.953024815389</v>
+        <v>103.9530248153891</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.56133875084801</v>
+        <v>96.56133875084804</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.5290748744749</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>137.209700115555</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>260.9307006383673</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>210.5646596909947</v>
       </c>
       <c r="I14" t="n">
-        <v>62.73949387512458</v>
+        <v>62.73949387512457</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.68024160140133</v>
+        <v>71.68024160140132</v>
       </c>
       <c r="T14" t="n">
-        <v>98.47307515310015</v>
+        <v>98.47307515310013</v>
       </c>
       <c r="U14" t="n">
         <v>129.2483093153382</v>
       </c>
       <c r="V14" t="n">
-        <v>78.45747565073093</v>
+        <v>206.3458864055991</v>
       </c>
       <c r="W14" t="n">
         <v>228.3427818836344</v>
@@ -1673,7 +1673,7 @@
         <v>248.6742640142492</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.4997366343156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>82.06303392409117</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>48.83824881048079</v>
       </c>
       <c r="D15" t="n">
-        <v>23.92508845772538</v>
+        <v>23.92508845772537</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>33.84609859025363</v>
       </c>
       <c r="F15" t="n">
-        <v>21.31889696662911</v>
+        <v>21.3188969666291</v>
       </c>
       <c r="G15" t="n">
-        <v>13.55417847630834</v>
+        <v>13.55417847630833</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>163.7292228923487</v>
       </c>
       <c r="T15" t="n">
-        <v>113.9380051945728</v>
+        <v>197.2470968808262</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4513092784512</v>
+        <v>224.6386443953714</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>127.8020116330799</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>82.27429449155808</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>81.48381630166583</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.89635637376362</v>
+        <v>57.89635637376361</v>
       </c>
       <c r="C16" t="n">
-        <v>45.14921781428215</v>
+        <v>45.14921781428214</v>
       </c>
       <c r="D16" t="n">
-        <v>26.81823139759918</v>
+        <v>26.81823139759916</v>
       </c>
       <c r="E16" t="n">
-        <v>24.78728905627899</v>
+        <v>24.78728905627898</v>
       </c>
       <c r="F16" t="n">
-        <v>23.97168629288431</v>
+        <v>23.9716862928843</v>
       </c>
       <c r="G16" t="n">
-        <v>45.46608883664569</v>
+        <v>45.46608883664567</v>
       </c>
       <c r="H16" t="n">
-        <v>37.34701555510333</v>
+        <v>37.34701555510331</v>
       </c>
       <c r="I16" t="n">
-        <v>24.46908674956002</v>
+        <v>24.46908674956</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58497642579221</v>
+        <v>40.5849764257922</v>
       </c>
       <c r="S16" t="n">
-        <v>96.05436038967157</v>
+        <v>96.05436038967156</v>
       </c>
       <c r="T16" t="n">
         <v>105.1360623384526</v>
@@ -1825,13 +1825,13 @@
         <v>130.749015950019</v>
       </c>
       <c r="W16" t="n">
-        <v>163.9052417704954</v>
+        <v>163.9052417704953</v>
       </c>
       <c r="X16" t="n">
         <v>103.9530248153891</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.56133875084804</v>
+        <v>96.56133875084802</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>191.1085302908134</v>
       </c>
       <c r="H17" t="n">
-        <v>109.5322489984725</v>
+        <v>109.5322489984724</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1926,19 +1926,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.7415135932285</v>
       </c>
       <c r="H18" t="n">
-        <v>107.7419192975101</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>77.20507959952955</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T18" t="n">
         <v>197.2470968808262</v>
@@ -1980,16 +1980,16 @@
         <v>224.6386443953714</v>
       </c>
       <c r="V18" t="n">
-        <v>133.0716347659446</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>153.17357457428</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>59.98510352193775</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.7189995447726</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>4.103651645930433</v>
@@ -2062,7 +2062,7 @@
         <v>29.71660525749675</v>
       </c>
       <c r="W19" t="n">
-        <v>62.87283107797313</v>
+        <v>198.6067271008079</v>
       </c>
       <c r="X19" t="n">
         <v>2.920614122866851</v>
@@ -2087,10 +2087,10 @@
         <v>133.384986945156</v>
       </c>
       <c r="E20" t="n">
-        <v>159.8982899458459</v>
+        <v>159.8982899458451</v>
       </c>
       <c r="F20" t="n">
-        <v>184.0741176710984</v>
+        <v>184.0741176710981</v>
       </c>
       <c r="G20" t="n">
         <v>191.1085302908134</v>
@@ -2166,7 +2166,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>143.5062320835493</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>77.20507959952955</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.418898585928962</v>
+        <v>224.6386443953714</v>
       </c>
       <c r="V21" t="n">
-        <v>212.6182874272559</v>
+        <v>8.688985230212722</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>145.7980343528964</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>59.98510352193775</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>15.63530805408873</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>4.103651645930433</v>
@@ -2296,7 +2296,7 @@
         <v>62.8196428556286</v>
       </c>
       <c r="V22" t="n">
-        <v>29.71660525749675</v>
+        <v>165.4505012803316</v>
       </c>
       <c r="W22" t="n">
         <v>62.87283107797313</v>
@@ -2394,25 +2394,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.7415135932285</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.7419192975101</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.20507959952955</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T24" t="n">
         <v>197.2470968808262</v>
       </c>
       <c r="U24" t="n">
-        <v>1.418898585928962</v>
+        <v>224.6386443953714</v>
       </c>
       <c r="V24" t="n">
-        <v>15.3711905464296</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>26.76960094055764</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>139.4437290611047</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.103651645930433</v>
+        <v>199.822651190703</v>
       </c>
       <c r="U25" t="n">
         <v>62.8196428556286</v>
@@ -2536,7 +2536,7 @@
         <v>29.71660525749675</v>
       </c>
       <c r="W25" t="n">
-        <v>258.5918306227457</v>
+        <v>62.87283107797313</v>
       </c>
       <c r="X25" t="n">
         <v>2.920614122866851</v>
@@ -2634,7 +2634,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>39.11901648687264</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7419192975101</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.20507959952955</v>
       </c>
       <c r="S27" t="n">
-        <v>143.375569196114</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T27" t="n">
-        <v>55.15734343855209</v>
+        <v>197.2470968808262</v>
       </c>
       <c r="U27" t="n">
         <v>224.6386443953714</v>
@@ -2795,7 +2795,7 @@
         <v>224.8953422366685</v>
       </c>
       <c r="D29" t="n">
-        <v>214.5149793123242</v>
+        <v>214.5149793123243</v>
       </c>
       <c r="E29" t="n">
         <v>241.0282823130133</v>
@@ -2810,7 +2810,7 @@
         <v>190.6622413656407</v>
       </c>
       <c r="I29" t="n">
-        <v>42.83707554977059</v>
+        <v>42.83707554977065</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.77782327604735</v>
+        <v>51.77782327604741</v>
       </c>
       <c r="T29" t="n">
-        <v>78.57065682774615</v>
+        <v>78.57065682774621</v>
       </c>
       <c r="U29" t="n">
-        <v>109.3458909899842</v>
+        <v>109.3458909899843</v>
       </c>
       <c r="V29" t="n">
         <v>186.4434680802452</v>
       </c>
       <c r="W29" t="n">
-        <v>208.4403635582804</v>
+        <v>208.4403635582805</v>
       </c>
       <c r="X29" t="n">
-        <v>228.7718456888952</v>
+        <v>228.7718456888953</v>
       </c>
       <c r="Y29" t="n">
-        <v>244.5973183089616</v>
+        <v>244.5973183089617</v>
       </c>
     </row>
     <row r="30">
@@ -2877,16 +2877,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>13.94368026489971</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>11.59966464302096</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7415135932285</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>93.73650545032154</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.20507959952955</v>
       </c>
       <c r="S30" t="n">
-        <v>21.63946945007454</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T30" t="n">
-        <v>55.15734343855206</v>
+        <v>197.2470968808262</v>
       </c>
       <c r="U30" t="n">
-        <v>82.54889095309719</v>
+        <v>224.6386443953714</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.99393804840963</v>
+        <v>37.99393804840969</v>
       </c>
       <c r="C31" t="n">
-        <v>25.24679948892816</v>
+        <v>25.24679948892822</v>
       </c>
       <c r="D31" t="n">
-        <v>6.915813072245186</v>
+        <v>6.915813072245243</v>
       </c>
       <c r="E31" t="n">
-        <v>4.884870730925002</v>
+        <v>4.884870730925059</v>
       </c>
       <c r="F31" t="n">
-        <v>4.069267967530322</v>
+        <v>4.069267967530379</v>
       </c>
       <c r="G31" t="n">
-        <v>25.56367051129169</v>
+        <v>25.56367051129175</v>
       </c>
       <c r="H31" t="n">
-        <v>17.44459722974933</v>
+        <v>17.44459722974939</v>
       </c>
       <c r="I31" t="n">
-        <v>4.566668424206025</v>
+        <v>4.566668424206082</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.68255810043822</v>
+        <v>20.68255810043828</v>
       </c>
       <c r="S31" t="n">
-        <v>76.15194206431758</v>
+        <v>76.15194206431764</v>
       </c>
       <c r="T31" t="n">
-        <v>85.23364401309865</v>
+        <v>85.23364401309871</v>
       </c>
       <c r="U31" t="n">
-        <v>143.9496352227968</v>
+        <v>143.9496352227969</v>
       </c>
       <c r="V31" t="n">
         <v>110.846597624665</v>
@@ -3013,10 +3013,10 @@
         <v>144.0028234451414</v>
       </c>
       <c r="X31" t="n">
-        <v>84.05060649003508</v>
+        <v>84.05060649003514</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.65892042549405</v>
+        <v>76.6589204254941</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.6266565491209</v>
+        <v>241.626656549121</v>
       </c>
       <c r="C32" t="n">
-        <v>224.8953422366685</v>
+        <v>224.8953422366686</v>
       </c>
       <c r="D32" t="n">
-        <v>214.5149793123242</v>
+        <v>214.5149793123244</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0282823130133</v>
+        <v>241.0282823130134</v>
       </c>
       <c r="F32" t="n">
-        <v>265.2041100382667</v>
+        <v>265.2041100382668</v>
       </c>
       <c r="G32" t="n">
-        <v>272.2385226579817</v>
+        <v>272.2385226579818</v>
       </c>
       <c r="H32" t="n">
-        <v>190.6622413656407</v>
+        <v>190.6622413656408</v>
       </c>
       <c r="I32" t="n">
-        <v>42.83707554977059</v>
+        <v>42.83707554977073</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.77782327604735</v>
+        <v>51.77782327604749</v>
       </c>
       <c r="T32" t="n">
-        <v>78.57065682774615</v>
+        <v>78.57065682774629</v>
       </c>
       <c r="U32" t="n">
-        <v>109.3458909899842</v>
+        <v>109.3458909899844</v>
       </c>
       <c r="V32" t="n">
-        <v>186.4434680802452</v>
+        <v>186.4434680802453</v>
       </c>
       <c r="W32" t="n">
-        <v>208.4403635582804</v>
+        <v>208.4403635582806</v>
       </c>
       <c r="X32" t="n">
-        <v>228.7718456888952</v>
+        <v>228.7718456888954</v>
       </c>
       <c r="Y32" t="n">
-        <v>244.5973183089616</v>
+        <v>244.5973183089618</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.28237216807065</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>28.93583048512681</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>13.9436802648998</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>95.15298409159624</v>
       </c>
       <c r="G33" t="n">
-        <v>10.18318600174592</v>
+        <v>135.7415135932285</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.20507959952955</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>163.7292228923487</v>
+        <v>21.63946945007468</v>
       </c>
       <c r="T33" t="n">
         <v>197.2470968808262</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.99393804840963</v>
+        <v>37.99393804840977</v>
       </c>
       <c r="C34" t="n">
-        <v>25.24679948892816</v>
+        <v>25.2467994889283</v>
       </c>
       <c r="D34" t="n">
-        <v>6.915813072245186</v>
+        <v>6.915813072245328</v>
       </c>
       <c r="E34" t="n">
-        <v>4.884870730925002</v>
+        <v>4.884870730925144</v>
       </c>
       <c r="F34" t="n">
-        <v>4.069267967530322</v>
+        <v>4.069267967530465</v>
       </c>
       <c r="G34" t="n">
-        <v>25.56367051129169</v>
+        <v>25.56367051129184</v>
       </c>
       <c r="H34" t="n">
-        <v>17.44459722974933</v>
+        <v>17.44459722974948</v>
       </c>
       <c r="I34" t="n">
-        <v>4.566668424206025</v>
+        <v>4.566668424206167</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.68255810043822</v>
+        <v>20.68255810043836</v>
       </c>
       <c r="S34" t="n">
-        <v>76.15194206431758</v>
+        <v>76.15194206431772</v>
       </c>
       <c r="T34" t="n">
-        <v>85.23364401309865</v>
+        <v>85.2336440130988</v>
       </c>
       <c r="U34" t="n">
-        <v>143.9496352227968</v>
+        <v>143.949635222797</v>
       </c>
       <c r="V34" t="n">
-        <v>110.846597624665</v>
+        <v>110.8465976246651</v>
       </c>
       <c r="W34" t="n">
-        <v>144.0028234451414</v>
+        <v>144.0028234451415</v>
       </c>
       <c r="X34" t="n">
-        <v>84.05060649003508</v>
+        <v>84.05060649003522</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.65892042549405</v>
+        <v>76.65892042549419</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>184.0741176710985</v>
       </c>
       <c r="G35" t="n">
-        <v>191.1085302908134</v>
+        <v>191.1085302908135</v>
       </c>
       <c r="H35" t="n">
         <v>109.5322489984725</v>
@@ -3345,19 +3345,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7415135932285</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>29.88107801199411</v>
+        <v>84.54882821273313</v>
       </c>
       <c r="U36" t="n">
         <v>224.6386443953714</v>
@@ -3408,10 +3408,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>4.103651645930461</v>
       </c>
       <c r="U37" t="n">
-        <v>111.5640182272019</v>
+        <v>62.81964285562863</v>
       </c>
       <c r="V37" t="n">
         <v>29.71660525749678</v>
@@ -3487,7 +3487,7 @@
         <v>62.87283107797316</v>
       </c>
       <c r="X37" t="n">
-        <v>2.92061412286688</v>
+        <v>198.6396136676393</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -3591,13 +3591,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>107.7419192975101</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.20507959952955</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.2470968808262</v>
       </c>
       <c r="U39" t="n">
-        <v>45.41211960342036</v>
+        <v>74.40225638616536</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>8.688985230212722</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.103651645930433</v>
+        <v>199.822651190703</v>
       </c>
       <c r="U40" t="n">
-        <v>258.5386424004012</v>
+        <v>62.8196428556286</v>
       </c>
       <c r="V40" t="n">
         <v>29.71660525749675</v>
@@ -3740,10 +3740,10 @@
         <v>163.0559997213747</v>
       </c>
       <c r="C41" t="n">
-        <v>146.3246854089223</v>
+        <v>142.1133747904826</v>
       </c>
       <c r="D41" t="n">
-        <v>131.7330118661383</v>
+        <v>135.9443224845781</v>
       </c>
       <c r="E41" t="n">
         <v>162.4576254852671</v>
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7415135932285</v>
+        <v>16.99826137082923</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.80477854118098</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.20507959952957</v>
       </c>
       <c r="S42" t="n">
         <v>163.7292228923487</v>
@@ -3876,10 +3876,10 @@
         <v>224.6386443953714</v>
       </c>
       <c r="V42" t="n">
-        <v>166.2478730441835</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>29.32893647997972</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>59.98510352193777</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.662987185352512</v>
+        <v>6.662987185352513</v>
       </c>
       <c r="U43" t="n">
-        <v>248.3013002427128</v>
+        <v>65.37897839505068</v>
       </c>
       <c r="V43" t="n">
         <v>32.27594079691883</v>
@@ -3964,7 +3964,7 @@
         <v>5.479949662288931</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>122.9372183257242</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3977,10 @@
         <v>163.0559997213747</v>
       </c>
       <c r="C44" t="n">
-        <v>142.1133747904828</v>
+        <v>146.3246854089223</v>
       </c>
       <c r="D44" t="n">
-        <v>135.9443224845781</v>
+        <v>135.944322484578</v>
       </c>
       <c r="E44" t="n">
         <v>162.4576254852671</v>
@@ -3992,7 +3992,7 @@
         <v>193.6678658302355</v>
       </c>
       <c r="H44" t="n">
-        <v>112.0915845378945</v>
+        <v>107.8802739194547</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.77523416223809</v>
+        <v>30.77523416223806</v>
       </c>
       <c r="V44" t="n">
         <v>107.872811252499</v>
       </c>
       <c r="W44" t="n">
-        <v>129.8697067305343</v>
+        <v>129.8697067305342</v>
       </c>
       <c r="X44" t="n">
-        <v>150.2011888611491</v>
+        <v>150.201188861149</v>
       </c>
       <c r="Y44" t="n">
         <v>166.0266614812155</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>65.42645727213365</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.20507959952957</v>
       </c>
       <c r="S45" t="n">
-        <v>150.7633602774492</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.2470968808262</v>
       </c>
       <c r="U45" t="n">
-        <v>3.978234125351042</v>
+        <v>224.6386443953714</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4119,10 +4119,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>182.9223218476621</v>
       </c>
       <c r="T46" t="n">
-        <v>189.5853090330146</v>
+        <v>6.662987185352485</v>
       </c>
       <c r="U46" t="n">
-        <v>65.37897839505068</v>
+        <v>65.37897839505065</v>
       </c>
       <c r="V46" t="n">
-        <v>32.27594079691883</v>
+        <v>32.2759407969188</v>
       </c>
       <c r="W46" t="n">
-        <v>65.43216661739521</v>
+        <v>65.43216661739518</v>
       </c>
       <c r="X46" t="n">
-        <v>5.479949662288931</v>
+        <v>5.479949662288902</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>461.8194348131873</v>
+        <v>712.3271959261052</v>
       </c>
       <c r="C11" t="n">
-        <v>461.8194348131873</v>
+        <v>712.3271959261052</v>
       </c>
       <c r="D11" t="n">
-        <v>461.8194348131873</v>
+        <v>712.3271959261052</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8194348131873</v>
+        <v>448.7608316449262</v>
       </c>
       <c r="F11" t="n">
-        <v>461.8194348131873</v>
+        <v>160.7744393584409</v>
       </c>
       <c r="G11" t="n">
-        <v>166.7275752340604</v>
+        <v>160.7744393584409</v>
       </c>
       <c r="H11" t="n">
-        <v>97.47359951709876</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I11" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J11" t="n">
-        <v>77.68595933140719</v>
+        <v>77.68595933140705</v>
       </c>
       <c r="K11" t="n">
-        <v>265.2860470056563</v>
+        <v>265.2860470056562</v>
       </c>
       <c r="L11" t="n">
         <v>549.9896226232089</v>
       </c>
       <c r="M11" t="n">
-        <v>881.9895008619227</v>
+        <v>881.9895008619226</v>
       </c>
       <c r="N11" t="n">
-        <v>1203.844309233456</v>
+        <v>1203.844309233455</v>
       </c>
       <c r="O11" t="n">
         <v>1461.634326688058</v>
       </c>
       <c r="P11" t="n">
-        <v>1644.713349234715</v>
+        <v>1644.713349234714</v>
       </c>
       <c r="Q11" t="n">
         <v>1705.018669030472</v>
@@ -5066,25 +5066,25 @@
         <v>1705.018669030472</v>
       </c>
       <c r="S11" t="n">
-        <v>1705.018669030472</v>
+        <v>1632.614384584612</v>
       </c>
       <c r="T11" t="n">
-        <v>1605.550916350573</v>
+        <v>1533.146631904712</v>
       </c>
       <c r="U11" t="n">
-        <v>1474.997068557302</v>
+        <v>1402.592784111441</v>
       </c>
       <c r="V11" t="n">
-        <v>1474.997068557302</v>
+        <v>1194.162595822957</v>
       </c>
       <c r="W11" t="n">
-        <v>1244.347793927368</v>
+        <v>963.5133211930237</v>
       </c>
       <c r="X11" t="n">
-        <v>993.1616686604501</v>
+        <v>712.3271959261052</v>
       </c>
       <c r="Y11" t="n">
-        <v>725.9902175146769</v>
+        <v>712.3271959261052</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>463.1260551643512</v>
+        <v>541.1109840527643</v>
       </c>
       <c r="C12" t="n">
-        <v>413.7944907093201</v>
+        <v>368.3578689745814</v>
       </c>
       <c r="D12" t="n">
-        <v>389.6277346914158</v>
+        <v>344.191112956677</v>
       </c>
       <c r="E12" t="n">
-        <v>232.0182056942704</v>
+        <v>186.5815839595317</v>
       </c>
       <c r="F12" t="n">
-        <v>210.4839663340391</v>
+        <v>47.79146275061786</v>
       </c>
       <c r="G12" t="n">
-        <v>73.37132634087894</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="H12" t="n">
-        <v>73.37132634087894</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I12" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J12" t="n">
-        <v>67.84169496362995</v>
+        <v>67.84169496362992</v>
       </c>
       <c r="K12" t="n">
-        <v>67.84169496362995</v>
+        <v>252.1166010199254</v>
       </c>
       <c r="L12" t="n">
-        <v>376.4716540553875</v>
+        <v>501.4685884878114</v>
       </c>
       <c r="M12" t="n">
-        <v>789.4284532554664</v>
+        <v>914.4253876878902</v>
       </c>
       <c r="N12" t="n">
-        <v>1002.185327277839</v>
+        <v>1336.417508272932</v>
       </c>
       <c r="O12" t="n">
         <v>1336.417508272932</v>
       </c>
       <c r="P12" t="n">
-        <v>1588.241758872392</v>
+        <v>1588.241758872391</v>
       </c>
       <c r="Q12" t="n">
         <v>1705.018669030472</v>
       </c>
       <c r="R12" t="n">
-        <v>1627.033740142058</v>
+        <v>1705.018669030472</v>
       </c>
       <c r="S12" t="n">
-        <v>1461.650686715443</v>
+        <v>1539.635615603857</v>
       </c>
       <c r="T12" t="n">
-        <v>1262.411194916629</v>
+        <v>1463.817674428194</v>
       </c>
       <c r="U12" t="n">
-        <v>1158.925023928294</v>
+        <v>1360.331503439859</v>
       </c>
       <c r="V12" t="n">
-        <v>924.6737804538952</v>
+        <v>1249.501810588612</v>
       </c>
       <c r="W12" t="n">
-        <v>795.5808394103802</v>
+        <v>996.9873189219451</v>
       </c>
       <c r="X12" t="n">
-        <v>589.0539408159577</v>
+        <v>790.4604203275226</v>
       </c>
       <c r="Y12" t="n">
-        <v>506.7470556627599</v>
+        <v>584.731984551173</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.4121064132895</v>
+        <v>264.4121064132897</v>
       </c>
       <c r="C13" t="n">
-        <v>218.8068358938127</v>
+        <v>218.8068358938129</v>
       </c>
       <c r="D13" t="n">
-        <v>191.7177132699751</v>
+        <v>191.7177132699754</v>
       </c>
       <c r="E13" t="n">
-        <v>166.680047556562</v>
+        <v>166.6800475565622</v>
       </c>
       <c r="F13" t="n">
-        <v>142.4662230182951</v>
+        <v>142.4662230182952</v>
       </c>
       <c r="G13" t="n">
-        <v>96.54088075905709</v>
+        <v>96.54088075905722</v>
       </c>
       <c r="H13" t="n">
-        <v>58.81662262258912</v>
+        <v>58.8166226225892</v>
       </c>
       <c r="I13" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J13" t="n">
-        <v>83.64527387097677</v>
+        <v>83.64527387097746</v>
       </c>
       <c r="K13" t="n">
-        <v>217.1477656179559</v>
+        <v>217.1477656179565</v>
       </c>
       <c r="L13" t="n">
-        <v>409.9599245477652</v>
+        <v>409.9599245477659</v>
       </c>
       <c r="M13" t="n">
-        <v>617.2705544451092</v>
+        <v>617.2705544451098</v>
       </c>
       <c r="N13" t="n">
-        <v>827.6693511300643</v>
+        <v>827.669351130065</v>
       </c>
       <c r="O13" t="n">
         <v>1015.904376342989</v>
@@ -5227,22 +5227,22 @@
         <v>1094.768766561894</v>
       </c>
       <c r="T13" t="n">
-        <v>988.5707237957802</v>
+        <v>988.5707237957804</v>
       </c>
       <c r="U13" t="n">
-        <v>823.0635989996683</v>
+        <v>823.0635989996686</v>
       </c>
       <c r="V13" t="n">
-        <v>690.9938859188409</v>
+        <v>690.9938859188413</v>
       </c>
       <c r="W13" t="n">
-        <v>525.4330356456135</v>
+        <v>525.4330356456137</v>
       </c>
       <c r="X13" t="n">
-        <v>420.4299802765336</v>
+        <v>420.4299802765339</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.8932744675962</v>
+        <v>322.8932744675964</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>310.1651749625481</v>
+        <v>712.3271959261056</v>
       </c>
       <c r="C14" t="n">
-        <v>310.1651749625481</v>
+        <v>712.3271959261056</v>
       </c>
       <c r="D14" t="n">
-        <v>310.1651749625481</v>
+        <v>573.7315392437272</v>
       </c>
       <c r="E14" t="n">
         <v>310.1651749625481</v>
@@ -5270,22 +5270,22 @@
         <v>310.1651749625481</v>
       </c>
       <c r="H14" t="n">
-        <v>97.47359951709893</v>
+        <v>97.47359951709899</v>
       </c>
       <c r="I14" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J14" t="n">
         <v>77.68595933140716</v>
       </c>
       <c r="K14" t="n">
-        <v>265.2860470056565</v>
+        <v>265.2860470056563</v>
       </c>
       <c r="L14" t="n">
-        <v>549.9896226232092</v>
+        <v>549.989622623209</v>
       </c>
       <c r="M14" t="n">
-        <v>881.989500861923</v>
+        <v>881.9895008619228</v>
       </c>
       <c r="N14" t="n">
         <v>1203.844309233456</v>
@@ -5312,16 +5312,16 @@
         <v>1402.592784111442</v>
       </c>
       <c r="V14" t="n">
-        <v>1323.342808706663</v>
+        <v>1194.162595822958</v>
       </c>
       <c r="W14" t="n">
-        <v>1092.69353407673</v>
+        <v>963.5133211930239</v>
       </c>
       <c r="X14" t="n">
-        <v>841.5074088098112</v>
+        <v>712.3271959261056</v>
       </c>
       <c r="Y14" t="n">
-        <v>574.3359576640378</v>
+        <v>712.3271959261056</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>423.8551022040818</v>
+        <v>177.0120009577784</v>
       </c>
       <c r="C15" t="n">
-        <v>251.101987125899</v>
+        <v>127.6804365027473</v>
       </c>
       <c r="D15" t="n">
-        <v>226.9352311079946</v>
+        <v>103.5136804848428</v>
       </c>
       <c r="E15" t="n">
-        <v>69.32570211084929</v>
+        <v>69.32570211084926</v>
       </c>
       <c r="F15" t="n">
-        <v>47.79146275061787</v>
+        <v>47.79146275061785</v>
       </c>
       <c r="G15" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="H15" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I15" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J15" t="n">
         <v>67.84169496362992</v>
       </c>
       <c r="K15" t="n">
-        <v>252.1166010199254</v>
+        <v>67.84169496362992</v>
       </c>
       <c r="L15" t="n">
-        <v>560.7465601116829</v>
+        <v>376.4716540553875</v>
       </c>
       <c r="M15" t="n">
-        <v>973.7033593117617</v>
+        <v>789.4284532554664</v>
       </c>
       <c r="N15" t="n">
-        <v>1336.417508272932</v>
+        <v>1211.420573840508</v>
       </c>
       <c r="O15" t="n">
-        <v>1336.417508272932</v>
+        <v>1453.194418431012</v>
       </c>
       <c r="P15" t="n">
-        <v>1588.241758872392</v>
+        <v>1705.018669030472</v>
       </c>
       <c r="Q15" t="n">
         <v>1705.018669030472</v>
@@ -5385,22 +5385,22 @@
         <v>1461.650686715443</v>
       </c>
       <c r="T15" t="n">
-        <v>1346.561792579511</v>
+        <v>1262.411194916629</v>
       </c>
       <c r="U15" t="n">
-        <v>1243.075621591177</v>
+        <v>1035.503473305143</v>
       </c>
       <c r="V15" t="n">
-        <v>1008.824378116778</v>
+        <v>801.2522298307433</v>
       </c>
       <c r="W15" t="n">
-        <v>879.7314370732627</v>
+        <v>548.7377381640766</v>
       </c>
       <c r="X15" t="n">
-        <v>796.6260891019919</v>
+        <v>342.2108395696541</v>
       </c>
       <c r="Y15" t="n">
-        <v>590.8976533256423</v>
+        <v>259.9039544164563</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.4121064132899</v>
+        <v>264.4121064132898</v>
       </c>
       <c r="C16" t="n">
-        <v>218.806835893813</v>
+        <v>218.8068358938129</v>
       </c>
       <c r="D16" t="n">
-        <v>191.7177132699755</v>
+        <v>191.7177132699754</v>
       </c>
       <c r="E16" t="n">
         <v>166.6800475565623</v>
       </c>
       <c r="F16" t="n">
-        <v>142.4662230182954</v>
+        <v>142.4662230182953</v>
       </c>
       <c r="G16" t="n">
-        <v>96.54088075905727</v>
+        <v>96.54088075905723</v>
       </c>
       <c r="H16" t="n">
-        <v>58.81662262258926</v>
+        <v>58.81662262258924</v>
       </c>
       <c r="I16" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J16" t="n">
         <v>83.64527387097704</v>
@@ -5443,16 +5443,16 @@
         <v>409.9599245477656</v>
       </c>
       <c r="M16" t="n">
-        <v>617.2705544451094</v>
+        <v>617.2705544451095</v>
       </c>
       <c r="N16" t="n">
-        <v>827.6693511300646</v>
+        <v>827.6693511300651</v>
       </c>
       <c r="O16" t="n">
-        <v>1015.904376342989</v>
+        <v>1015.90437634299</v>
       </c>
       <c r="P16" t="n">
-        <v>1171.208089419693</v>
+        <v>1171.208089419694</v>
       </c>
       <c r="Q16" t="n">
         <v>1232.788298698727</v>
@@ -5461,25 +5461,25 @@
         <v>1191.793373016108</v>
       </c>
       <c r="S16" t="n">
-        <v>1094.768766561895</v>
+        <v>1094.768766561894</v>
       </c>
       <c r="T16" t="n">
-        <v>988.5707237957807</v>
+        <v>988.5707237957806</v>
       </c>
       <c r="U16" t="n">
-        <v>823.0635989996688</v>
+        <v>823.0635989996687</v>
       </c>
       <c r="V16" t="n">
-        <v>690.9938859188416</v>
+        <v>690.9938859188414</v>
       </c>
       <c r="W16" t="n">
-        <v>525.4330356456139</v>
+        <v>525.4330356456138</v>
       </c>
       <c r="X16" t="n">
-        <v>420.429980276534</v>
+        <v>420.4299802765339</v>
       </c>
       <c r="Y16" t="n">
-        <v>322.8932744675966</v>
+        <v>322.8932744675965</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>965.1746397653426</v>
+        <v>965.1746397653424</v>
       </c>
       <c r="C17" t="n">
         <v>819.9571146446351</v>
@@ -5507,22 +5507,22 @@
         <v>144.7390087326018</v>
       </c>
       <c r="H17" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I17" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J17" t="n">
-        <v>77.68595933140728</v>
+        <v>77.68595933140716</v>
       </c>
       <c r="K17" t="n">
-        <v>265.2860470056565</v>
+        <v>265.2860470056563</v>
       </c>
       <c r="L17" t="n">
-        <v>549.9896226232092</v>
+        <v>549.989622623209</v>
       </c>
       <c r="M17" t="n">
-        <v>881.9895008619229</v>
+        <v>881.9895008619228</v>
       </c>
       <c r="N17" t="n">
         <v>1203.844309233456</v>
@@ -5558,7 +5558,7 @@
         <v>1292.410993425692</v>
       </c>
       <c r="Y17" t="n">
-        <v>1127.292482373376</v>
+        <v>1127.292482373375</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>608.2278065958681</v>
+        <v>646.5314474324807</v>
       </c>
       <c r="C18" t="n">
-        <v>435.4746915176852</v>
+        <v>473.778332354298</v>
       </c>
       <c r="D18" t="n">
-        <v>287.8863848766291</v>
+        <v>473.778332354298</v>
       </c>
       <c r="E18" t="n">
-        <v>287.8863848766291</v>
+        <v>316.1688033571527</v>
       </c>
       <c r="F18" t="n">
-        <v>142.9305948932459</v>
+        <v>171.2130133737695</v>
       </c>
       <c r="G18" t="n">
-        <v>142.9305948932459</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="H18" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I18" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J18" t="n">
-        <v>34.10037338060944</v>
+        <v>67.84169496362992</v>
       </c>
       <c r="K18" t="n">
-        <v>34.10037338060944</v>
+        <v>110.4306990004199</v>
       </c>
       <c r="L18" t="n">
-        <v>167.2364074927181</v>
+        <v>419.0606580921774</v>
       </c>
       <c r="M18" t="n">
-        <v>580.1932066927969</v>
+        <v>832.0174572922563</v>
       </c>
       <c r="N18" t="n">
-        <v>1002.185327277839</v>
+        <v>1254.009577877298</v>
       </c>
       <c r="O18" t="n">
-        <v>1336.417508272932</v>
+        <v>1588.241758872392</v>
       </c>
       <c r="P18" t="n">
         <v>1588.241758872392</v>
@@ -5619,25 +5619,25 @@
         <v>1627.033740142058</v>
       </c>
       <c r="S18" t="n">
-        <v>1627.033740142058</v>
+        <v>1461.650686715443</v>
       </c>
       <c r="T18" t="n">
-        <v>1427.794248343244</v>
+        <v>1262.411194916629</v>
       </c>
       <c r="U18" t="n">
-        <v>1200.886526731758</v>
+        <v>1035.503473305143</v>
       </c>
       <c r="V18" t="n">
-        <v>1066.470734038884</v>
+        <v>801.2522298307433</v>
       </c>
       <c r="W18" t="n">
-        <v>813.9562423722176</v>
+        <v>646.5314474324807</v>
       </c>
       <c r="X18" t="n">
-        <v>813.9562423722176</v>
+        <v>646.5314474324807</v>
       </c>
       <c r="Y18" t="n">
-        <v>608.2278065958681</v>
+        <v>646.5314474324807</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="C19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="D19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="E19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="F19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="G19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="H19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="K19" t="n">
-        <v>46.63740336183754</v>
+        <v>46.63740336183753</v>
       </c>
       <c r="L19" t="n">
         <v>118.4841005258961</v>
       </c>
       <c r="M19" t="n">
-        <v>204.829268657489</v>
+        <v>204.8292686574889</v>
       </c>
       <c r="N19" t="n">
         <v>294.2626035766932</v>
@@ -5692,31 +5692,31 @@
         <v>395.8704183348199</v>
       </c>
       <c r="Q19" t="n">
-        <v>395.8704183348199</v>
+        <v>335.2794046762969</v>
       </c>
       <c r="R19" t="n">
-        <v>395.8704183348199</v>
+        <v>335.2794046762969</v>
       </c>
       <c r="S19" t="n">
-        <v>198.174459198686</v>
+        <v>335.2794046762969</v>
       </c>
       <c r="T19" t="n">
-        <v>194.0293565260289</v>
+        <v>331.1343020036399</v>
       </c>
       <c r="U19" t="n">
-        <v>130.5751718233738</v>
+        <v>267.6801173009848</v>
       </c>
       <c r="V19" t="n">
-        <v>100.5583988360034</v>
+        <v>237.6633443136143</v>
       </c>
       <c r="W19" t="n">
         <v>37.05048865623252</v>
       </c>
       <c r="X19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>965.1746397653426</v>
+        <v>965.1746397653419</v>
       </c>
       <c r="C20" t="n">
-        <v>819.9571146446353</v>
+        <v>819.9571146446347</v>
       </c>
       <c r="D20" t="n">
-        <v>685.2248045990232</v>
+        <v>685.2248045990226</v>
       </c>
       <c r="E20" t="n">
-        <v>523.7113804113001</v>
+        <v>523.7113804113003</v>
       </c>
       <c r="F20" t="n">
-        <v>337.7779282182713</v>
+        <v>337.7779282182719</v>
       </c>
       <c r="G20" t="n">
         <v>144.7390087326018</v>
       </c>
       <c r="H20" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I20" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J20" t="n">
-        <v>77.68595933140739</v>
+        <v>77.68595933140716</v>
       </c>
       <c r="K20" t="n">
-        <v>265.2860470056565</v>
+        <v>265.2860470056563</v>
       </c>
       <c r="L20" t="n">
-        <v>549.9896226232092</v>
+        <v>549.989622623209</v>
       </c>
       <c r="M20" t="n">
-        <v>881.989500861923</v>
+        <v>881.9895008619228</v>
       </c>
       <c r="N20" t="n">
         <v>1203.844309233456</v>
@@ -5783,19 +5783,19 @@
         <v>1705.018669030472</v>
       </c>
       <c r="U20" t="n">
-        <v>1676.517761330658</v>
+        <v>1676.517761330657</v>
       </c>
       <c r="V20" t="n">
         <v>1570.14051313563</v>
       </c>
       <c r="W20" t="n">
-        <v>1441.544178599154</v>
+        <v>1441.544178599153</v>
       </c>
       <c r="X20" t="n">
-        <v>1292.410993425692</v>
+        <v>1292.410993425691</v>
       </c>
       <c r="Y20" t="n">
-        <v>1127.292482373376</v>
+        <v>1127.292482373375</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>657.0071140803768</v>
+        <v>499.3975850832315</v>
       </c>
       <c r="C21" t="n">
-        <v>484.253999002194</v>
+        <v>326.6444700050487</v>
       </c>
       <c r="D21" t="n">
-        <v>336.6656923611379</v>
+        <v>179.0561633639926</v>
       </c>
       <c r="E21" t="n">
         <v>179.0561633639926</v>
       </c>
       <c r="F21" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="G21" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="H21" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I21" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J21" t="n">
         <v>67.84169496362992</v>
@@ -5841,40 +5841,40 @@
         <v>973.7033593117617</v>
       </c>
       <c r="N21" t="n">
-        <v>1395.695479896804</v>
+        <v>1395.695479896803</v>
       </c>
       <c r="O21" t="n">
-        <v>1705.018669030472</v>
+        <v>1395.695479896803</v>
       </c>
       <c r="P21" t="n">
-        <v>1705.018669030472</v>
+        <v>1588.241758872392</v>
       </c>
       <c r="Q21" t="n">
         <v>1705.018669030472</v>
       </c>
       <c r="R21" t="n">
-        <v>1705.018669030472</v>
+        <v>1627.033740142058</v>
       </c>
       <c r="S21" t="n">
-        <v>1705.018669030472</v>
+        <v>1461.650686715443</v>
       </c>
       <c r="T21" t="n">
-        <v>1705.018669030472</v>
+        <v>1461.650686715443</v>
       </c>
       <c r="U21" t="n">
-        <v>1703.585438135594</v>
+        <v>1234.742965103957</v>
       </c>
       <c r="V21" t="n">
-        <v>1488.819491239376</v>
+        <v>1225.966212346166</v>
       </c>
       <c r="W21" t="n">
-        <v>1236.304999572709</v>
+        <v>1078.695470575564</v>
       </c>
       <c r="X21" t="n">
-        <v>1029.778100978287</v>
+        <v>872.1685719811416</v>
       </c>
       <c r="Y21" t="n">
-        <v>824.0496652019373</v>
+        <v>666.440136204792</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="C22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="D22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="E22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="F22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="G22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="H22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="K22" t="n">
-        <v>46.63740336183754</v>
+        <v>46.63740336183753</v>
       </c>
       <c r="L22" t="n">
         <v>118.4841005258961</v>
       </c>
       <c r="M22" t="n">
-        <v>204.829268657489</v>
+        <v>204.8292686574889</v>
       </c>
       <c r="N22" t="n">
         <v>294.2626035766932</v>
@@ -5929,31 +5929,31 @@
         <v>395.8704183348199</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.8704183348199</v>
+        <v>335.2794046762969</v>
       </c>
       <c r="R22" t="n">
-        <v>395.8704183348199</v>
+        <v>335.2794046762969</v>
       </c>
       <c r="S22" t="n">
-        <v>380.0771778761444</v>
+        <v>335.2794046762969</v>
       </c>
       <c r="T22" t="n">
-        <v>375.9320752034874</v>
+        <v>331.1343020036399</v>
       </c>
       <c r="U22" t="n">
-        <v>312.4778905008322</v>
+        <v>267.6801173009848</v>
       </c>
       <c r="V22" t="n">
-        <v>282.4611175134618</v>
+        <v>100.5583988360034</v>
       </c>
       <c r="W22" t="n">
-        <v>218.953207333691</v>
+        <v>37.05048865623252</v>
       </c>
       <c r="X22" t="n">
-        <v>216.0030920580679</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.0030920580679</v>
+        <v>34.10037338060943</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>965.1746397653426</v>
+        <v>965.1746397653421</v>
       </c>
       <c r="C23" t="n">
-        <v>819.9571146446352</v>
+        <v>819.9571146446347</v>
       </c>
       <c r="D23" t="n">
-        <v>685.2248045990231</v>
+        <v>685.2248045990226</v>
       </c>
       <c r="E23" t="n">
-        <v>523.7113804113008</v>
+        <v>523.7113804113003</v>
       </c>
       <c r="F23" t="n">
-        <v>337.7779282182719</v>
+        <v>337.7779282182715</v>
       </c>
       <c r="G23" t="n">
         <v>144.7390087326018</v>
       </c>
       <c r="H23" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I23" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J23" t="n">
         <v>77.68595933140716</v>
@@ -6020,19 +6020,19 @@
         <v>1705.018669030472</v>
       </c>
       <c r="U23" t="n">
-        <v>1676.517761330658</v>
+        <v>1676.517761330657</v>
       </c>
       <c r="V23" t="n">
         <v>1570.14051313563</v>
       </c>
       <c r="W23" t="n">
-        <v>1441.544178599154</v>
+        <v>1441.544178599153</v>
       </c>
       <c r="X23" t="n">
         <v>1292.410993425692</v>
       </c>
       <c r="Y23" t="n">
-        <v>1127.292482373376</v>
+        <v>1127.292482373375</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>657.0071140803768</v>
+        <v>427.6315415274622</v>
       </c>
       <c r="C24" t="n">
-        <v>484.253999002194</v>
+        <v>427.6315415274622</v>
       </c>
       <c r="D24" t="n">
-        <v>336.6656923611379</v>
+        <v>280.043234886406</v>
       </c>
       <c r="E24" t="n">
-        <v>179.0561633639926</v>
+        <v>280.043234886406</v>
       </c>
       <c r="F24" t="n">
-        <v>34.10037338060944</v>
+        <v>280.043234886406</v>
       </c>
       <c r="G24" t="n">
-        <v>34.10037338060944</v>
+        <v>142.9305948932459</v>
       </c>
       <c r="H24" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I24" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J24" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="K24" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="L24" t="n">
-        <v>167.2364074927181</v>
+        <v>342.730332472367</v>
       </c>
       <c r="M24" t="n">
-        <v>580.1932066927969</v>
+        <v>755.6871316724457</v>
       </c>
       <c r="N24" t="n">
-        <v>1002.185327277839</v>
+        <v>1118.962237435919</v>
       </c>
       <c r="O24" t="n">
-        <v>1336.417508272932</v>
+        <v>1453.194418431012</v>
       </c>
       <c r="P24" t="n">
-        <v>1588.241758872392</v>
+        <v>1705.018669030472</v>
       </c>
       <c r="Q24" t="n">
         <v>1705.018669030472</v>
       </c>
       <c r="R24" t="n">
-        <v>1705.018669030472</v>
+        <v>1627.033740142058</v>
       </c>
       <c r="S24" t="n">
-        <v>1705.018669030472</v>
+        <v>1461.650686715443</v>
       </c>
       <c r="T24" t="n">
-        <v>1505.779177231658</v>
+        <v>1262.411194916629</v>
       </c>
       <c r="U24" t="n">
-        <v>1504.34594633678</v>
+        <v>1035.503473305143</v>
       </c>
       <c r="V24" t="n">
-        <v>1488.819491239376</v>
+        <v>801.2522298307433</v>
       </c>
       <c r="W24" t="n">
-        <v>1236.304999572709</v>
+        <v>774.2122288806851</v>
       </c>
       <c r="X24" t="n">
-        <v>1029.778100978287</v>
+        <v>633.3599773038117</v>
       </c>
       <c r="Y24" t="n">
-        <v>824.0496652019373</v>
+        <v>427.6315415274622</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="C25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="D25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="E25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="F25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="G25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="H25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="K25" t="n">
-        <v>46.63740336183754</v>
+        <v>46.63740336183753</v>
       </c>
       <c r="L25" t="n">
         <v>118.4841005258961</v>
       </c>
       <c r="M25" t="n">
-        <v>204.829268657489</v>
+        <v>204.8292686574889</v>
       </c>
       <c r="N25" t="n">
         <v>294.2626035766932</v>
@@ -6175,22 +6175,22 @@
         <v>395.8704183348199</v>
       </c>
       <c r="T25" t="n">
-        <v>391.7253156621629</v>
+        <v>194.0293565260289</v>
       </c>
       <c r="U25" t="n">
-        <v>328.2711309595077</v>
+        <v>130.5751718233738</v>
       </c>
       <c r="V25" t="n">
-        <v>298.2543579721373</v>
+        <v>100.5583988360034</v>
       </c>
       <c r="W25" t="n">
         <v>37.05048865623252</v>
       </c>
       <c r="X25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
     </row>
     <row r="26">
@@ -6209,64 +6209,64 @@
         <v>1079.931889116923</v>
       </c>
       <c r="E26" t="n">
-        <v>836.4689776896369</v>
+        <v>836.4689776896366</v>
       </c>
       <c r="F26" t="n">
-        <v>568.5860382570443</v>
+        <v>568.586038257044</v>
       </c>
       <c r="G26" t="n">
-        <v>293.5976315318103</v>
+        <v>293.59763153181</v>
       </c>
       <c r="H26" t="n">
         <v>101.0095089402537</v>
       </c>
       <c r="I26" t="n">
-        <v>57.73973565765711</v>
+        <v>57.73973565765715</v>
       </c>
       <c r="J26" t="n">
-        <v>241.9941775163062</v>
+        <v>241.9941775163063</v>
       </c>
       <c r="K26" t="n">
-        <v>570.2631210984067</v>
+        <v>570.2631210984068</v>
       </c>
       <c r="L26" t="n">
-        <v>995.6355526238109</v>
+        <v>995.6355526238119</v>
       </c>
       <c r="M26" t="n">
-        <v>1468.304286770375</v>
+        <v>1468.304286770377</v>
       </c>
       <c r="N26" t="n">
-        <v>1930.827951049759</v>
+        <v>1930.827951049761</v>
       </c>
       <c r="O26" t="n">
-        <v>2329.286824412213</v>
+        <v>2329.286824412215</v>
       </c>
       <c r="P26" t="n">
-        <v>2653.034702866721</v>
+        <v>2653.034702866723</v>
       </c>
       <c r="Q26" t="n">
-        <v>2854.00887857033</v>
+        <v>2854.008878570331</v>
       </c>
       <c r="R26" t="n">
-        <v>2886.986782882856</v>
+        <v>2886.986782882857</v>
       </c>
       <c r="S26" t="n">
-        <v>2834.685951290889</v>
+        <v>2834.68595129089</v>
       </c>
       <c r="T26" t="n">
-        <v>2755.321651464883</v>
+        <v>2755.321651464884</v>
       </c>
       <c r="U26" t="n">
         <v>2644.871256525505</v>
       </c>
       <c r="V26" t="n">
-        <v>2456.544521090913</v>
+        <v>2456.544521090914</v>
       </c>
       <c r="W26" t="n">
-        <v>2245.998699314872</v>
+        <v>2245.998699314874</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.916026901847</v>
+        <v>2014.916026901848</v>
       </c>
       <c r="Y26" t="n">
         <v>1767.848028609967</v>
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>789.4766978700611</v>
+        <v>547.4075193467899</v>
       </c>
       <c r="C27" t="n">
-        <v>616.7235827918782</v>
+        <v>507.8933612792417</v>
       </c>
       <c r="D27" t="n">
-        <v>469.1352761508221</v>
+        <v>360.3050546381856</v>
       </c>
       <c r="E27" t="n">
-        <v>311.5257471536767</v>
+        <v>202.6955256410403</v>
       </c>
       <c r="F27" t="n">
-        <v>166.5699571702936</v>
+        <v>57.73973565765715</v>
       </c>
       <c r="G27" t="n">
-        <v>166.5699571702936</v>
+        <v>57.73973565765715</v>
       </c>
       <c r="H27" t="n">
-        <v>57.73973565765711</v>
+        <v>57.73973565765715</v>
       </c>
       <c r="I27" t="n">
-        <v>57.73973565765711</v>
+        <v>57.73973565765715</v>
       </c>
       <c r="J27" t="n">
-        <v>91.4810572406776</v>
+        <v>91.48105724067764</v>
       </c>
       <c r="K27" t="n">
         <v>275.7559632969731</v>
       </c>
       <c r="L27" t="n">
-        <v>584.3859223887306</v>
+        <v>584.3859223887307</v>
       </c>
       <c r="M27" t="n">
-        <v>997.3427215888094</v>
+        <v>997.3427215888096</v>
       </c>
       <c r="N27" t="n">
         <v>1436.62799047584</v>
@@ -6327,28 +6327,28 @@
         <v>2139.461332228473</v>
       </c>
       <c r="R27" t="n">
-        <v>2139.461332228473</v>
+        <v>2061.476403340059</v>
       </c>
       <c r="S27" t="n">
-        <v>1994.637524959671</v>
+        <v>1896.093349913444</v>
       </c>
       <c r="T27" t="n">
-        <v>1938.923036637901</v>
+        <v>1696.85385811463</v>
       </c>
       <c r="U27" t="n">
-        <v>1712.015315026415</v>
+        <v>1469.946136503144</v>
       </c>
       <c r="V27" t="n">
-        <v>1477.764071552016</v>
+        <v>1235.694893028744</v>
       </c>
       <c r="W27" t="n">
-        <v>1225.249579885349</v>
+        <v>983.1804013620778</v>
       </c>
       <c r="X27" t="n">
-        <v>1018.722681290927</v>
+        <v>776.6535027676553</v>
       </c>
       <c r="Y27" t="n">
-        <v>956.5192489916216</v>
+        <v>714.4500704683503</v>
       </c>
     </row>
     <row r="28">
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.3272987130873</v>
+        <v>147.3272987130874</v>
       </c>
       <c r="C28" t="n">
         <v>121.8254810475033</v>
       </c>
       <c r="D28" t="n">
-        <v>114.8398112775586</v>
+        <v>114.8398112775587</v>
       </c>
       <c r="E28" t="n">
-        <v>109.9055984180384</v>
+        <v>109.9055984180385</v>
       </c>
       <c r="F28" t="n">
-        <v>105.7952267336643</v>
+        <v>105.7952267336644</v>
       </c>
       <c r="G28" t="n">
-        <v>79.97333732831915</v>
+        <v>79.97333732831919</v>
       </c>
       <c r="H28" t="n">
-        <v>62.35253204574403</v>
+        <v>62.35253204574407</v>
       </c>
       <c r="I28" t="n">
-        <v>57.73973565765711</v>
+        <v>57.73973565765715</v>
       </c>
       <c r="J28" t="n">
-        <v>57.73973565765711</v>
+        <v>126.9880302901252</v>
       </c>
       <c r="K28" t="n">
-        <v>70.27676563888521</v>
+        <v>139.5250602713533</v>
       </c>
       <c r="L28" t="n">
-        <v>235.37952978101</v>
+        <v>211.3717574354118</v>
       </c>
       <c r="M28" t="n">
-        <v>462.3935538204543</v>
+        <v>297.7169255670047</v>
       </c>
       <c r="N28" t="n">
-        <v>692.4957446475099</v>
+        <v>527.8191163940604</v>
       </c>
       <c r="O28" t="n">
-        <v>900.4341640025349</v>
+        <v>678.4817046735504</v>
       </c>
       <c r="P28" t="n">
-        <v>934.772415313488</v>
+        <v>853.488811892355</v>
       </c>
       <c r="Q28" t="n">
         <v>934.772415313488</v>
@@ -6412,22 +6412,22 @@
         <v>836.9597888844417</v>
       </c>
       <c r="T28" t="n">
-        <v>750.8651989722207</v>
+        <v>750.8651989722208</v>
       </c>
       <c r="U28" t="n">
-        <v>605.4615270300017</v>
+        <v>605.4615270300018</v>
       </c>
       <c r="V28" t="n">
-        <v>493.4952668030674</v>
+        <v>493.4952668030675</v>
       </c>
       <c r="W28" t="n">
-        <v>348.0378693837326</v>
+        <v>348.0378693837327</v>
       </c>
       <c r="X28" t="n">
         <v>263.1382668685457</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.7050139135011</v>
+        <v>185.7050139135012</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1523.780698762369</v>
+        <v>1523.78069876237</v>
       </c>
       <c r="C29" t="n">
-        <v>1296.613686402098</v>
+        <v>1296.613686402099</v>
       </c>
       <c r="D29" t="n">
-        <v>1079.931889116922</v>
+        <v>1079.931889116923</v>
       </c>
       <c r="E29" t="n">
-        <v>836.4689776896359</v>
+        <v>836.4689776896363</v>
       </c>
       <c r="F29" t="n">
-        <v>568.5860382570434</v>
+        <v>568.5860382570436</v>
       </c>
       <c r="G29" t="n">
-        <v>293.5976315318096</v>
+        <v>293.59763153181</v>
       </c>
       <c r="H29" t="n">
         <v>101.0095089402537</v>
       </c>
       <c r="I29" t="n">
-        <v>57.7397356576571</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9941775163063</v>
+        <v>241.9941775163062</v>
       </c>
       <c r="K29" t="n">
-        <v>570.2631210984068</v>
+        <v>570.2631210984067</v>
       </c>
       <c r="L29" t="n">
-        <v>995.635552623811</v>
+        <v>995.6355526238108</v>
       </c>
       <c r="M29" t="n">
-        <v>1468.304286770375</v>
+        <v>1468.304286770376</v>
       </c>
       <c r="N29" t="n">
-        <v>1930.827951049759</v>
+        <v>1930.82795104976</v>
       </c>
       <c r="O29" t="n">
-        <v>2329.286824412212</v>
+        <v>2329.286824412213</v>
       </c>
       <c r="P29" t="n">
-        <v>2653.034702866721</v>
+        <v>2653.034702866722</v>
       </c>
       <c r="Q29" t="n">
-        <v>2854.008878570329</v>
+        <v>2854.00887857033</v>
       </c>
       <c r="R29" t="n">
-        <v>2886.986782882855</v>
+        <v>2886.986782882856</v>
       </c>
       <c r="S29" t="n">
-        <v>2834.685951290888</v>
+        <v>2834.685951290889</v>
       </c>
       <c r="T29" t="n">
-        <v>2755.321651464882</v>
+        <v>2755.321651464883</v>
       </c>
       <c r="U29" t="n">
-        <v>2644.871256525504</v>
+        <v>2644.871256525505</v>
       </c>
       <c r="V29" t="n">
-        <v>2456.544521090912</v>
+        <v>2456.544521090914</v>
       </c>
       <c r="W29" t="n">
-        <v>2245.998699314872</v>
+        <v>2245.998699314873</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.916026901846</v>
+        <v>2014.916026901847</v>
       </c>
       <c r="Y29" t="n">
-        <v>1767.848028609966</v>
+        <v>1767.848028609967</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>912.4424551892931</v>
+        <v>403.8825158697452</v>
       </c>
       <c r="C30" t="n">
-        <v>739.6893401111104</v>
+        <v>231.1294007915624</v>
       </c>
       <c r="D30" t="n">
-        <v>592.1010334700543</v>
+        <v>83.5410941505063</v>
       </c>
       <c r="E30" t="n">
-        <v>434.491504472909</v>
+        <v>69.45656863040557</v>
       </c>
       <c r="F30" t="n">
-        <v>289.5357144895258</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="G30" t="n">
-        <v>152.4230744963657</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="H30" t="n">
-        <v>57.7397356576571</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="I30" t="n">
-        <v>57.7397356576571</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="J30" t="n">
-        <v>91.48105724067759</v>
+        <v>91.48105724067761</v>
       </c>
       <c r="K30" t="n">
         <v>275.7559632969731</v>
@@ -6564,28 +6564,28 @@
         <v>2139.461332228473</v>
       </c>
       <c r="R30" t="n">
-        <v>2139.461332228473</v>
+        <v>2061.476403340059</v>
       </c>
       <c r="S30" t="n">
-        <v>2117.603282278903</v>
+        <v>1896.093349913444</v>
       </c>
       <c r="T30" t="n">
-        <v>2061.888793957133</v>
+        <v>1696.85385811463</v>
       </c>
       <c r="U30" t="n">
-        <v>1978.506075822692</v>
+        <v>1469.946136503144</v>
       </c>
       <c r="V30" t="n">
-        <v>1744.254832348292</v>
+        <v>1235.694893028744</v>
       </c>
       <c r="W30" t="n">
-        <v>1491.740340681626</v>
+        <v>983.1804013620778</v>
       </c>
       <c r="X30" t="n">
-        <v>1285.213442087203</v>
+        <v>776.6535027676553</v>
       </c>
       <c r="Y30" t="n">
-        <v>1079.485006310854</v>
+        <v>570.9250669913057</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.3272987130871</v>
+        <v>147.3272987130875</v>
       </c>
       <c r="C31" t="n">
-        <v>121.8254810475031</v>
+        <v>121.8254810475035</v>
       </c>
       <c r="D31" t="n">
-        <v>114.8398112775585</v>
+        <v>114.8398112775588</v>
       </c>
       <c r="E31" t="n">
-        <v>109.9055984180383</v>
+        <v>109.9055984180385</v>
       </c>
       <c r="F31" t="n">
-        <v>105.7952267336642</v>
+        <v>105.7952267336644</v>
       </c>
       <c r="G31" t="n">
-        <v>79.97333732831908</v>
+        <v>79.97333732831922</v>
       </c>
       <c r="H31" t="n">
-        <v>62.35253204574399</v>
+        <v>62.35253204574407</v>
       </c>
       <c r="I31" t="n">
-        <v>57.7397356576571</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9880302901252</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="K31" t="n">
-        <v>222.9180851036692</v>
+        <v>163.5328326169521</v>
       </c>
       <c r="L31" t="n">
-        <v>435.4336381755791</v>
+        <v>376.048385688862</v>
       </c>
       <c r="M31" t="n">
-        <v>662.4476622150235</v>
+        <v>462.3935538204549</v>
       </c>
       <c r="N31" t="n">
-        <v>751.8809971342278</v>
+        <v>551.8268887396591</v>
       </c>
       <c r="O31" t="n">
-        <v>819.1505605814014</v>
+        <v>759.7653080946841</v>
       </c>
       <c r="P31" t="n">
-        <v>853.4888118923544</v>
+        <v>934.7724153134885</v>
       </c>
       <c r="Q31" t="n">
-        <v>934.7724153134875</v>
+        <v>934.7724153134885</v>
       </c>
       <c r="R31" t="n">
-        <v>913.880942484762</v>
+        <v>913.880942484763</v>
       </c>
       <c r="S31" t="n">
-        <v>836.9597888844412</v>
+        <v>836.9597888844421</v>
       </c>
       <c r="T31" t="n">
-        <v>750.8651989722204</v>
+        <v>750.8651989722212</v>
       </c>
       <c r="U31" t="n">
-        <v>605.4615270300013</v>
+        <v>605.4615270300021</v>
       </c>
       <c r="V31" t="n">
-        <v>493.495266803067</v>
+        <v>493.4952668030678</v>
       </c>
       <c r="W31" t="n">
-        <v>348.0378693837323</v>
+        <v>348.037869383733</v>
       </c>
       <c r="X31" t="n">
-        <v>263.1382668685454</v>
+        <v>263.1382668685459</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.7050139135009</v>
+        <v>185.7050139135014</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1523.780698762369</v>
+        <v>1523.780698762371</v>
       </c>
       <c r="C32" t="n">
-        <v>1296.613686402098</v>
+        <v>1296.613686402099</v>
       </c>
       <c r="D32" t="n">
-        <v>1079.931889116922</v>
+        <v>1079.931889116923</v>
       </c>
       <c r="E32" t="n">
-        <v>836.4689776896362</v>
+        <v>836.468977689637</v>
       </c>
       <c r="F32" t="n">
-        <v>568.5860382570436</v>
+        <v>568.5860382570443</v>
       </c>
       <c r="G32" t="n">
-        <v>293.5976315318096</v>
+        <v>293.5976315318102</v>
       </c>
       <c r="H32" t="n">
-        <v>101.0095089402537</v>
+        <v>101.0095089402538</v>
       </c>
       <c r="I32" t="n">
-        <v>57.7397356576571</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="J32" t="n">
-        <v>241.9941775163062</v>
+        <v>241.994177516306</v>
       </c>
       <c r="K32" t="n">
-        <v>570.2631210984068</v>
+        <v>570.2631210984065</v>
       </c>
       <c r="L32" t="n">
-        <v>995.6355526238109</v>
+        <v>995.6355526238103</v>
       </c>
       <c r="M32" t="n">
         <v>1468.304286770375</v>
@@ -6713,37 +6713,37 @@
         <v>1930.827951049759</v>
       </c>
       <c r="O32" t="n">
-        <v>2329.286824412212</v>
+        <v>2329.286824412213</v>
       </c>
       <c r="P32" t="n">
-        <v>2653.034702866721</v>
+        <v>2653.034702866722</v>
       </c>
       <c r="Q32" t="n">
-        <v>2854.008878570329</v>
+        <v>2854.00887857033</v>
       </c>
       <c r="R32" t="n">
-        <v>2886.986782882855</v>
+        <v>2886.986782882856</v>
       </c>
       <c r="S32" t="n">
-        <v>2834.685951290888</v>
+        <v>2834.68595129089</v>
       </c>
       <c r="T32" t="n">
-        <v>2755.321651464882</v>
+        <v>2755.321651464883</v>
       </c>
       <c r="U32" t="n">
-        <v>2644.871256525504</v>
+        <v>2644.871256525505</v>
       </c>
       <c r="V32" t="n">
-        <v>2456.544521090913</v>
+        <v>2456.544521090914</v>
       </c>
       <c r="W32" t="n">
-        <v>2245.998699314872</v>
+        <v>2245.998699314873</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.916026901847</v>
+        <v>2014.916026901848</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.848028609966</v>
+        <v>1767.848028609968</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>547.4075193467899</v>
+        <v>625.3924482352037</v>
       </c>
       <c r="C33" t="n">
-        <v>518.1794077456517</v>
+        <v>452.6393331570209</v>
       </c>
       <c r="D33" t="n">
-        <v>370.5911011045956</v>
+        <v>305.0510265159647</v>
       </c>
       <c r="E33" t="n">
-        <v>212.9815721074503</v>
+        <v>290.966500995864</v>
       </c>
       <c r="F33" t="n">
-        <v>68.02578212406712</v>
+        <v>194.8523756508172</v>
       </c>
       <c r="G33" t="n">
-        <v>57.7397356576571</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="H33" t="n">
-        <v>57.7397356576571</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="I33" t="n">
-        <v>57.7397356576571</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="J33" t="n">
-        <v>91.48105724067759</v>
+        <v>91.48105724067761</v>
       </c>
       <c r="K33" t="n">
         <v>275.7559632969731</v>
@@ -6801,28 +6801,28 @@
         <v>2139.461332228473</v>
       </c>
       <c r="R33" t="n">
-        <v>2061.476403340059</v>
+        <v>2139.461332228473</v>
       </c>
       <c r="S33" t="n">
-        <v>1896.093349913444</v>
+        <v>2117.603282278903</v>
       </c>
       <c r="T33" t="n">
-        <v>1696.85385811463</v>
+        <v>1918.363790480088</v>
       </c>
       <c r="U33" t="n">
-        <v>1469.946136503144</v>
+        <v>1691.456068868602</v>
       </c>
       <c r="V33" t="n">
-        <v>1235.694893028744</v>
+        <v>1457.204825394203</v>
       </c>
       <c r="W33" t="n">
-        <v>983.1804013620778</v>
+        <v>1204.690333727536</v>
       </c>
       <c r="X33" t="n">
-        <v>776.6535027676553</v>
+        <v>998.1634351331137</v>
       </c>
       <c r="Y33" t="n">
-        <v>570.9250669913057</v>
+        <v>792.4349993567641</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.3272987130871</v>
+        <v>147.3272987130881</v>
       </c>
       <c r="C34" t="n">
-        <v>121.8254810475031</v>
+        <v>121.825481047504</v>
       </c>
       <c r="D34" t="n">
-        <v>114.8398112775585</v>
+        <v>114.8398112775592</v>
       </c>
       <c r="E34" t="n">
-        <v>109.9055984180383</v>
+        <v>109.9055984180389</v>
       </c>
       <c r="F34" t="n">
-        <v>105.7952267336642</v>
+        <v>105.7952267336647</v>
       </c>
       <c r="G34" t="n">
-        <v>79.97333732831908</v>
+        <v>79.97333732831939</v>
       </c>
       <c r="H34" t="n">
-        <v>62.35253204574399</v>
+        <v>62.35253204574416</v>
       </c>
       <c r="I34" t="n">
-        <v>57.7397356576571</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="J34" t="n">
-        <v>57.7397356576571</v>
+        <v>57.73973565765712</v>
       </c>
       <c r="K34" t="n">
-        <v>210.9456215467366</v>
+        <v>70.27676563888522</v>
       </c>
       <c r="L34" t="n">
-        <v>423.4611746186466</v>
+        <v>142.1234628029437</v>
       </c>
       <c r="M34" t="n">
-        <v>650.4751986580909</v>
+        <v>369.1374868423879</v>
       </c>
       <c r="N34" t="n">
-        <v>833.1646005553608</v>
+        <v>470.5432853185276</v>
       </c>
       <c r="O34" t="n">
-        <v>900.4341640025344</v>
+        <v>678.4817046735525</v>
       </c>
       <c r="P34" t="n">
-        <v>934.7724153134875</v>
+        <v>853.4888118923568</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.7724153134875</v>
+        <v>934.7724153134898</v>
       </c>
       <c r="R34" t="n">
-        <v>913.880942484762</v>
+        <v>913.8809424847642</v>
       </c>
       <c r="S34" t="n">
-        <v>836.9597888844412</v>
+        <v>836.9597888844432</v>
       </c>
       <c r="T34" t="n">
-        <v>750.8651989722204</v>
+        <v>750.8651989722222</v>
       </c>
       <c r="U34" t="n">
-        <v>605.4615270300013</v>
+        <v>605.461527030003</v>
       </c>
       <c r="V34" t="n">
-        <v>493.495266803067</v>
+        <v>493.4952668030686</v>
       </c>
       <c r="W34" t="n">
-        <v>348.0378693837323</v>
+        <v>348.0378693837338</v>
       </c>
       <c r="X34" t="n">
-        <v>263.1382668685454</v>
+        <v>263.1382668685467</v>
       </c>
       <c r="Y34" t="n">
-        <v>185.7050139135009</v>
+        <v>185.7050139135021</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>965.1746397653426</v>
+        <v>965.1746397653422</v>
       </c>
       <c r="C35" t="n">
-        <v>819.9571146446352</v>
+        <v>819.9571146446349</v>
       </c>
       <c r="D35" t="n">
-        <v>685.2248045990232</v>
+        <v>685.2248045990227</v>
       </c>
       <c r="E35" t="n">
-        <v>523.711380411301</v>
+        <v>523.7113804113004</v>
       </c>
       <c r="F35" t="n">
-        <v>337.7779282182722</v>
+        <v>337.7779282182717</v>
       </c>
       <c r="G35" t="n">
         <v>144.7390087326019</v>
@@ -6971,7 +6971,7 @@
         <v>1676.517761330658</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.140513135631</v>
+        <v>1570.14051313563</v>
       </c>
       <c r="W35" t="n">
         <v>1441.544178599154</v>
@@ -6980,7 +6980,7 @@
         <v>1292.410993425692</v>
       </c>
       <c r="Y35" t="n">
-        <v>1127.292482373376</v>
+        <v>1127.292482373375</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>794.119754073537</v>
+        <v>326.6444700050487</v>
       </c>
       <c r="C36" t="n">
-        <v>621.3666389953542</v>
+        <v>326.6444700050487</v>
       </c>
       <c r="D36" t="n">
-        <v>473.778332354298</v>
+        <v>179.0561633639926</v>
       </c>
       <c r="E36" t="n">
-        <v>316.1688033571527</v>
+        <v>179.0561633639926</v>
       </c>
       <c r="F36" t="n">
-        <v>171.2130133737696</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="G36" t="n">
         <v>34.10037338060944</v>
@@ -7014,25 +7014,25 @@
         <v>34.10037338060944</v>
       </c>
       <c r="J36" t="n">
-        <v>34.10037338060944</v>
+        <v>67.84169496362992</v>
       </c>
       <c r="K36" t="n">
-        <v>34.10037338060944</v>
+        <v>252.1166010199254</v>
       </c>
       <c r="L36" t="n">
-        <v>284.0133176507983</v>
+        <v>252.1166010199254</v>
       </c>
       <c r="M36" t="n">
-        <v>696.9701168508772</v>
+        <v>665.0734002200043</v>
       </c>
       <c r="N36" t="n">
-        <v>1118.962237435919</v>
+        <v>1087.065520805046</v>
       </c>
       <c r="O36" t="n">
-        <v>1453.194418431013</v>
+        <v>1336.417508272932</v>
       </c>
       <c r="P36" t="n">
-        <v>1705.018669030472</v>
+        <v>1588.241758872392</v>
       </c>
       <c r="Q36" t="n">
         <v>1705.018669030472</v>
@@ -7044,22 +7044,22 @@
         <v>1705.018669030472</v>
       </c>
       <c r="T36" t="n">
-        <v>1674.83576194765</v>
+        <v>1619.615812249933</v>
       </c>
       <c r="U36" t="n">
-        <v>1447.928040336163</v>
+        <v>1392.708090638447</v>
       </c>
       <c r="V36" t="n">
-        <v>1213.676796861764</v>
+        <v>1158.456847164048</v>
       </c>
       <c r="W36" t="n">
-        <v>961.1623051950975</v>
+        <v>905.9423554973812</v>
       </c>
       <c r="X36" t="n">
-        <v>961.1623051950975</v>
+        <v>699.4154569029587</v>
       </c>
       <c r="Y36" t="n">
-        <v>961.1623051950975</v>
+        <v>493.6870211266092</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>182.5595897171743</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="C37" t="n">
-        <v>182.5595897171743</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="D37" t="n">
-        <v>182.5595897171743</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="E37" t="n">
         <v>34.10037338060944</v>
@@ -7126,19 +7126,19 @@
         <v>391.7253156621629</v>
       </c>
       <c r="U37" t="n">
-        <v>279.0343881599388</v>
+        <v>328.2711309595077</v>
       </c>
       <c r="V37" t="n">
-        <v>249.0176151725683</v>
+        <v>298.2543579721372</v>
       </c>
       <c r="W37" t="n">
-        <v>185.5097049927974</v>
+        <v>234.7464477923663</v>
       </c>
       <c r="X37" t="n">
-        <v>182.5595897171743</v>
+        <v>34.10037338060944</v>
       </c>
       <c r="Y37" t="n">
-        <v>182.5595897171743</v>
+        <v>34.10037338060944</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.1746397653426</v>
+        <v>965.1746397653424</v>
       </c>
       <c r="C38" t="n">
-        <v>819.9571146446352</v>
+        <v>819.9571146446351</v>
       </c>
       <c r="D38" t="n">
-        <v>685.2248045990231</v>
+        <v>685.2248045990229</v>
       </c>
       <c r="E38" t="n">
-        <v>523.7113804113008</v>
+        <v>523.7113804113005</v>
       </c>
       <c r="F38" t="n">
-        <v>337.7779282182719</v>
+        <v>337.7779282182717</v>
       </c>
       <c r="G38" t="n">
         <v>144.7390087326018</v>
       </c>
       <c r="H38" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I38" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J38" t="n">
-        <v>77.68595933140728</v>
+        <v>77.68595933140705</v>
       </c>
       <c r="K38" t="n">
-        <v>265.2860470056565</v>
+        <v>265.2860470056562</v>
       </c>
       <c r="L38" t="n">
-        <v>549.9896226232092</v>
+        <v>549.9896226232088</v>
       </c>
       <c r="M38" t="n">
-        <v>881.9895008619229</v>
+        <v>881.9895008619226</v>
       </c>
       <c r="N38" t="n">
-        <v>1203.844309233456</v>
+        <v>1203.844309233455</v>
       </c>
       <c r="O38" t="n">
-        <v>1461.634326688058</v>
+        <v>1461.634326688057</v>
       </c>
       <c r="P38" t="n">
-        <v>1644.713349234715</v>
+        <v>1644.713349234714</v>
       </c>
       <c r="Q38" t="n">
         <v>1705.018669030472</v>
@@ -7205,7 +7205,7 @@
         <v>1705.018669030472</v>
       </c>
       <c r="U38" t="n">
-        <v>1676.517761330658</v>
+        <v>1676.517761330657</v>
       </c>
       <c r="V38" t="n">
         <v>1570.14051313563</v>
@@ -7217,7 +7217,7 @@
         <v>1292.410993425692</v>
       </c>
       <c r="Y38" t="n">
-        <v>1127.292482373376</v>
+        <v>1127.292482373375</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>593.0842205148306</v>
+        <v>512.0513240969938</v>
       </c>
       <c r="C39" t="n">
-        <v>593.0842205148306</v>
+        <v>339.2982090188109</v>
       </c>
       <c r="D39" t="n">
-        <v>445.4959138737744</v>
+        <v>191.7099023777547</v>
       </c>
       <c r="E39" t="n">
-        <v>287.8863848766291</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="F39" t="n">
-        <v>142.9305948932459</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="G39" t="n">
-        <v>142.9305948932459</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="H39" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I39" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J39" t="n">
-        <v>67.84169496362992</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="K39" t="n">
-        <v>252.1166010199254</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="L39" t="n">
-        <v>560.7465601116829</v>
+        <v>342.730332472367</v>
       </c>
       <c r="M39" t="n">
-        <v>973.7033593117617</v>
+        <v>755.6871316724457</v>
       </c>
       <c r="N39" t="n">
-        <v>1370.786488035378</v>
+        <v>1177.679252257487</v>
       </c>
       <c r="O39" t="n">
-        <v>1705.018669030472</v>
+        <v>1453.194418431012</v>
       </c>
       <c r="P39" t="n">
         <v>1705.018669030472</v>
@@ -7275,28 +7275,28 @@
         <v>1705.018669030472</v>
       </c>
       <c r="R39" t="n">
-        <v>1705.018669030472</v>
+        <v>1627.033740142058</v>
       </c>
       <c r="S39" t="n">
-        <v>1705.018669030472</v>
+        <v>1627.033740142058</v>
       </c>
       <c r="T39" t="n">
-        <v>1705.018669030472</v>
+        <v>1427.794248343243</v>
       </c>
       <c r="U39" t="n">
-        <v>1659.147841148229</v>
+        <v>1352.640454013783</v>
       </c>
       <c r="V39" t="n">
-        <v>1424.89659767383</v>
+        <v>1343.863701255993</v>
       </c>
       <c r="W39" t="n">
-        <v>1172.382106007163</v>
+        <v>1091.349209589326</v>
       </c>
       <c r="X39" t="n">
-        <v>965.8552074127406</v>
+        <v>884.8223109949038</v>
       </c>
       <c r="Y39" t="n">
-        <v>760.126771636391</v>
+        <v>679.0938752185542</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="C40" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="D40" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="E40" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="F40" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="G40" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="H40" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="I40" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="J40" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="K40" t="n">
-        <v>46.63740336183754</v>
+        <v>46.63740336183753</v>
       </c>
       <c r="L40" t="n">
         <v>118.4841005258961</v>
       </c>
       <c r="M40" t="n">
-        <v>204.829268657489</v>
+        <v>204.8292686574889</v>
       </c>
       <c r="N40" t="n">
         <v>294.2626035766932</v>
@@ -7360,7 +7360,7 @@
         <v>395.8704183348199</v>
       </c>
       <c r="T40" t="n">
-        <v>391.7253156621629</v>
+        <v>194.0293565260289</v>
       </c>
       <c r="U40" t="n">
         <v>130.5751718233738</v>
@@ -7372,10 +7372,10 @@
         <v>37.05048865623252</v>
       </c>
       <c r="X40" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060943</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.9782090117079</v>
+        <v>976.9782090117072</v>
       </c>
       <c r="C41" t="n">
-        <v>829.1754964774425</v>
+        <v>833.4293455869777</v>
       </c>
       <c r="D41" t="n">
-        <v>696.1118481278078</v>
+        <v>696.1118481278079</v>
       </c>
       <c r="E41" t="n">
         <v>532.0132365265279</v>
@@ -7409,31 +7409,31 @@
         <v>34.64666725516366</v>
       </c>
       <c r="J41" t="n">
-        <v>78.23225320596138</v>
+        <v>78.23225320596134</v>
       </c>
       <c r="K41" t="n">
-        <v>265.8323408802106</v>
+        <v>265.8323408802104</v>
       </c>
       <c r="L41" t="n">
-        <v>550.5359164977633</v>
+        <v>550.5359164977631</v>
       </c>
       <c r="M41" t="n">
-        <v>882.5357947364771</v>
+        <v>909.3041945896339</v>
       </c>
       <c r="N41" t="n">
-        <v>1204.39060310801</v>
+        <v>1231.159002961167</v>
       </c>
       <c r="O41" t="n">
-        <v>1462.180620562612</v>
+        <v>1488.949020415769</v>
       </c>
       <c r="P41" t="n">
-        <v>1645.259643109269</v>
+        <v>1672.028042962426</v>
       </c>
       <c r="Q41" t="n">
-        <v>1705.564962905026</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="R41" t="n">
-        <v>1705.808457542001</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="S41" t="n">
         <v>1732.333362758183</v>
@@ -7445,16 +7445,16 @@
         <v>1701.247267644811</v>
       </c>
       <c r="V41" t="n">
-        <v>1592.284832036227</v>
+        <v>1592.284832036226</v>
       </c>
       <c r="W41" t="n">
-        <v>1461.103310086192</v>
+        <v>1461.103310086191</v>
       </c>
       <c r="X41" t="n">
-        <v>1309.384937499173</v>
+        <v>1309.384937499172</v>
       </c>
       <c r="Y41" t="n">
-        <v>1141.681239033299</v>
+        <v>1141.681239033298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>569.6813133525941</v>
+        <v>369.5255332973652</v>
       </c>
       <c r="C42" t="n">
-        <v>396.9281982744112</v>
+        <v>196.7724182191824</v>
       </c>
       <c r="D42" t="n">
-        <v>249.3398916333551</v>
+        <v>196.7724182191824</v>
       </c>
       <c r="E42" t="n">
-        <v>249.3398916333551</v>
+        <v>196.7724182191824</v>
       </c>
       <c r="F42" t="n">
-        <v>249.3398916333551</v>
+        <v>51.81662823579924</v>
       </c>
       <c r="G42" t="n">
-        <v>112.227251640195</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="H42" t="n">
-        <v>112.227251640195</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="I42" t="n">
         <v>34.64666725516366</v>
@@ -7491,49 +7491,49 @@
         <v>34.64666725516366</v>
       </c>
       <c r="K42" t="n">
-        <v>218.9215733114591</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="L42" t="n">
-        <v>527.5515324032167</v>
+        <v>343.2766263469211</v>
       </c>
       <c r="M42" t="n">
-        <v>717.5244238809796</v>
+        <v>756.2334255469999</v>
       </c>
       <c r="N42" t="n">
-        <v>1146.27693116363</v>
+        <v>1184.98593282965</v>
       </c>
       <c r="O42" t="n">
-        <v>1480.509112158723</v>
+        <v>1519.218113824744</v>
       </c>
       <c r="P42" t="n">
-        <v>1732.333362758183</v>
+        <v>1615.556452600103</v>
       </c>
       <c r="Q42" t="n">
         <v>1732.333362758183</v>
       </c>
       <c r="R42" t="n">
-        <v>1732.333362758183</v>
+        <v>1654.348433869769</v>
       </c>
       <c r="S42" t="n">
-        <v>1566.950309331568</v>
+        <v>1488.965380443154</v>
       </c>
       <c r="T42" t="n">
-        <v>1367.710817532753</v>
+        <v>1289.72588864434</v>
       </c>
       <c r="U42" t="n">
-        <v>1140.803095921267</v>
+        <v>1062.818167032854</v>
       </c>
       <c r="V42" t="n">
-        <v>972.8759514321929</v>
+        <v>828.5669235584544</v>
       </c>
       <c r="W42" t="n">
-        <v>943.250763068577</v>
+        <v>576.0524318917877</v>
       </c>
       <c r="X42" t="n">
-        <v>736.7238644741545</v>
+        <v>369.5255332973652</v>
       </c>
       <c r="Y42" t="n">
-        <v>736.7238644741545</v>
+        <v>369.5255332973652</v>
       </c>
     </row>
     <row r="43">
@@ -7570,46 +7570,46 @@
         <v>34.64666725516366</v>
       </c>
       <c r="K43" t="n">
-        <v>47.18369723639175</v>
+        <v>47.18369723639172</v>
       </c>
       <c r="L43" t="n">
-        <v>119.0303944004503</v>
+        <v>119.0303944004502</v>
       </c>
       <c r="M43" t="n">
         <v>205.3755625320431</v>
       </c>
       <c r="N43" t="n">
-        <v>294.8088974512474</v>
+        <v>294.8088974512473</v>
       </c>
       <c r="O43" t="n">
-        <v>362.078460898421</v>
+        <v>362.0784608984209</v>
       </c>
       <c r="P43" t="n">
-        <v>396.4167122093741</v>
+        <v>396.4167122093739</v>
       </c>
       <c r="Q43" t="n">
-        <v>396.4167122093741</v>
+        <v>335.8256985508509</v>
       </c>
       <c r="R43" t="n">
-        <v>396.4167122093741</v>
+        <v>335.8256985508509</v>
       </c>
       <c r="S43" t="n">
-        <v>396.4167122093741</v>
+        <v>335.8256985508509</v>
       </c>
       <c r="T43" t="n">
-        <v>389.6864221231594</v>
+        <v>329.0954084646363</v>
       </c>
       <c r="U43" t="n">
-        <v>138.877027938601</v>
+        <v>263.0560363484234</v>
       </c>
       <c r="V43" t="n">
-        <v>106.2750675376729</v>
+        <v>230.4540759474953</v>
       </c>
       <c r="W43" t="n">
-        <v>40.1819699443444</v>
+        <v>164.3609783541668</v>
       </c>
       <c r="X43" t="n">
-        <v>34.64666725516366</v>
+        <v>158.8256756649861</v>
       </c>
       <c r="Y43" t="n">
         <v>34.64666725516366</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.9782090117073</v>
+        <v>976.9782090117083</v>
       </c>
       <c r="C44" t="n">
-        <v>833.4293455869777</v>
+        <v>829.1754964774431</v>
       </c>
       <c r="D44" t="n">
-        <v>696.1118481278079</v>
+        <v>691.8579990182733</v>
       </c>
       <c r="E44" t="n">
-        <v>532.0132365265279</v>
+        <v>527.7593874169934</v>
       </c>
       <c r="F44" t="n">
-        <v>343.4945969199414</v>
+        <v>339.2407478104069</v>
       </c>
       <c r="G44" t="n">
-        <v>147.8704900207137</v>
+        <v>143.6166409111785</v>
       </c>
       <c r="H44" t="n">
         <v>34.64666725516366</v>
@@ -7646,25 +7646,25 @@
         <v>34.64666725516366</v>
       </c>
       <c r="J44" t="n">
-        <v>78.23225320596138</v>
+        <v>78.23225320596134</v>
       </c>
       <c r="K44" t="n">
-        <v>265.8323408802106</v>
+        <v>265.8323408802104</v>
       </c>
       <c r="L44" t="n">
-        <v>550.5359164977633</v>
+        <v>550.5359164977631</v>
       </c>
       <c r="M44" t="n">
-        <v>882.5357947364771</v>
+        <v>882.5357947364766</v>
       </c>
       <c r="N44" t="n">
-        <v>1204.39060310801</v>
+        <v>1204.390603108009</v>
       </c>
       <c r="O44" t="n">
-        <v>1462.180620562612</v>
+        <v>1462.180620562611</v>
       </c>
       <c r="P44" t="n">
-        <v>1645.259643109269</v>
+        <v>1645.259643109268</v>
       </c>
       <c r="Q44" t="n">
         <v>1705.564962905026</v>
@@ -7682,16 +7682,16 @@
         <v>1701.247267644811</v>
       </c>
       <c r="V44" t="n">
-        <v>1592.284832036226</v>
+        <v>1592.284832036227</v>
       </c>
       <c r="W44" t="n">
-        <v>1461.103310086191</v>
+        <v>1461.103310086192</v>
       </c>
       <c r="X44" t="n">
-        <v>1309.384937499172</v>
+        <v>1309.384937499173</v>
       </c>
       <c r="Y44" t="n">
-        <v>1141.681239033298</v>
+        <v>1141.681239033299</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>509.9651013138749</v>
+        <v>576.0524318917877</v>
       </c>
       <c r="C45" t="n">
-        <v>337.2119862356921</v>
+        <v>403.2993168136049</v>
       </c>
       <c r="D45" t="n">
         <v>337.2119862356921</v>
@@ -7725,19 +7725,19 @@
         <v>34.64666725516366</v>
       </c>
       <c r="J45" t="n">
-        <v>34.64666725516366</v>
+        <v>68.38798883818411</v>
       </c>
       <c r="K45" t="n">
-        <v>34.64666725516366</v>
+        <v>252.6628948944795</v>
       </c>
       <c r="L45" t="n">
-        <v>187.7907145228206</v>
+        <v>252.6628948944795</v>
       </c>
       <c r="M45" t="n">
-        <v>600.7475137228994</v>
+        <v>665.6196940945583</v>
       </c>
       <c r="N45" t="n">
-        <v>1029.50002100555</v>
+        <v>1094.372201377209</v>
       </c>
       <c r="O45" t="n">
         <v>1363.732202000643</v>
@@ -7749,28 +7749,28 @@
         <v>1732.333362758183</v>
       </c>
       <c r="R45" t="n">
-        <v>1732.333362758183</v>
+        <v>1654.348433869769</v>
       </c>
       <c r="S45" t="n">
-        <v>1580.047140255709</v>
+        <v>1488.965380443154</v>
       </c>
       <c r="T45" t="n">
-        <v>1580.047140255709</v>
+        <v>1289.72588864434</v>
       </c>
       <c r="U45" t="n">
-        <v>1576.028721947273</v>
+        <v>1062.818167032854</v>
       </c>
       <c r="V45" t="n">
-        <v>1341.777478472874</v>
+        <v>828.5669235584544</v>
       </c>
       <c r="W45" t="n">
-        <v>1089.262986806207</v>
+        <v>576.0524318917877</v>
       </c>
       <c r="X45" t="n">
-        <v>882.7360882117849</v>
+        <v>576.0524318917877</v>
       </c>
       <c r="Y45" t="n">
-        <v>677.0076524354354</v>
+        <v>576.0524318917877</v>
       </c>
     </row>
     <row r="46">
@@ -7807,43 +7807,43 @@
         <v>34.64666725516366</v>
       </c>
       <c r="K46" t="n">
-        <v>47.18369723639175</v>
+        <v>47.18369723639172</v>
       </c>
       <c r="L46" t="n">
-        <v>119.0303944004503</v>
+        <v>119.0303944004502</v>
       </c>
       <c r="M46" t="n">
         <v>205.3755625320431</v>
       </c>
       <c r="N46" t="n">
-        <v>294.8088974512474</v>
+        <v>294.8088974512473</v>
       </c>
       <c r="O46" t="n">
-        <v>362.078460898421</v>
+        <v>362.0784608984209</v>
       </c>
       <c r="P46" t="n">
-        <v>396.4167122093741</v>
+        <v>396.4167122093739</v>
       </c>
       <c r="Q46" t="n">
-        <v>396.4167122093741</v>
+        <v>396.4167122093739</v>
       </c>
       <c r="R46" t="n">
-        <v>396.4167122093741</v>
+        <v>396.4167122093739</v>
       </c>
       <c r="S46" t="n">
-        <v>396.4167122093741</v>
+        <v>211.6466901410284</v>
       </c>
       <c r="T46" t="n">
-        <v>204.9164000548138</v>
+        <v>204.9164000548137</v>
       </c>
       <c r="U46" t="n">
-        <v>138.877027938601</v>
+        <v>138.8770279386009</v>
       </c>
       <c r="V46" t="n">
-        <v>106.2750675376729</v>
+        <v>106.2750675376728</v>
       </c>
       <c r="W46" t="n">
-        <v>40.1819699443444</v>
+        <v>40.18196994434437</v>
       </c>
       <c r="X46" t="n">
         <v>34.64666725516366</v>
@@ -8693,7 +8693,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L11" t="n">
-        <v>434.3676631324682</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M11" t="n">
         <v>467.4940748325458</v>
@@ -8769,19 +8769,19 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>88.90757774934899</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>325.7972201015858</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>269.6995088479442</v>
+        <v>481.0482427496304</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>72.00854841639099</v>
       </c>
       <c r="P12" t="n">
         <v>331.2012793855346</v>
@@ -8927,7 +8927,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1112290740116</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L14" t="n">
         <v>434.3676631324684</v>
@@ -9006,7 +9006,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>88.907577749349</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9015,16 +9015,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>421.1715037356192</v>
+        <v>481.0482427496305</v>
       </c>
       <c r="O15" t="n">
-        <v>72.00854841639099</v>
+        <v>316.224553053264</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5239043381313</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9240,13 +9240,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05253374087317</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>88.907577749349</v>
+        <v>131.9267737461066</v>
       </c>
       <c r="L18" t="n">
-        <v>208.4073682270633</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
         <v>484.3332662999999</v>
@@ -9258,7 +9258,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>76.83334948709069</v>
       </c>
       <c r="Q18" t="n">
         <v>218.4803792452831</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789569</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
         <v>337.1112290740114</v>
@@ -9407,7 +9407,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M20" t="n">
-        <v>467.4940748325458</v>
+        <v>467.4940748325459</v>
       </c>
       <c r="N20" t="n">
         <v>454.8408013884635</v>
@@ -9489,16 +9489,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>481.0482427496306</v>
+        <v>481.0482427496305</v>
       </c>
       <c r="O21" t="n">
-        <v>384.4562142079752</v>
+        <v>72.00854841639099</v>
       </c>
       <c r="P21" t="n">
-        <v>76.83334948709069</v>
+        <v>271.3245403715232</v>
       </c>
       <c r="Q21" t="n">
-        <v>100.5239043381313</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9720,13 +9720,13 @@
         <v>88.907577749349</v>
       </c>
       <c r="L24" t="n">
-        <v>208.4073682270633</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>481.0482427496305</v>
+        <v>421.7381267682479</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9735,7 +9735,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5239043381313</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10662,28 +10662,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05253374087317</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>88.907577749349</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>326.3638431342151</v>
+        <v>73.9265256895798</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>481.0482427496305</v>
+        <v>481.0482427496306</v>
       </c>
       <c r="O36" t="n">
-        <v>409.6168120477987</v>
+        <v>323.8792428283972</v>
       </c>
       <c r="P36" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>100.5239043381313</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10899,10 +10899,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>97.05253374087317</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>88.907577749349</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10911,13 +10911,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.8876449098072</v>
+        <v>481.0482427496304</v>
       </c>
       <c r="O39" t="n">
-        <v>409.6168120477987</v>
+        <v>350.306696066416</v>
       </c>
       <c r="P39" t="n">
-        <v>76.83334948709069</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
         <v>100.5239043381313</v>
@@ -11136,16 +11136,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05253374087317</v>
+        <v>97.0525337408732</v>
       </c>
       <c r="K42" t="n">
-        <v>275.0438464930818</v>
+        <v>88.90757774934906</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>259.0969958734182</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
         <v>487.8769161815583</v>
@@ -11154,10 +11154,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>331.2012793855346</v>
+        <v>174.144802795534</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.5239043381313</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11373,13 +11373,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05253374087317</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>88.907577749349</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>228.6174825255969</v>
+        <v>73.92652568957988</v>
       </c>
       <c r="M45" t="n">
         <v>484.3332662999999</v>
@@ -11388,7 +11388,7 @@
         <v>487.8769161815583</v>
       </c>
       <c r="O45" t="n">
-        <v>409.6168120477987</v>
+        <v>344.0893571269311</v>
       </c>
       <c r="P45" t="n">
         <v>331.2012793855346</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.5290748744749</v>
       </c>
       <c r="C11" t="n">
-        <v>244.7977605620224</v>
+        <v>244.7977605620225</v>
       </c>
       <c r="D11" t="n">
         <v>234.4173976376782</v>
       </c>
       <c r="E11" t="n">
-        <v>260.9307006383672</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>285.1065283636206</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>292.1409409833357</v>
       </c>
       <c r="H11" t="n">
-        <v>142.0032237312026</v>
+        <v>85.15733437294152</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.73949387512458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.68024160140131</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>206.3458864055991</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>264.4997366343156</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>261.5290748744749</v>
       </c>
       <c r="C14" t="n">
-        <v>244.7977605620225</v>
+        <v>244.7977605620224</v>
       </c>
       <c r="D14" t="n">
-        <v>234.4173976376782</v>
+        <v>97.20769752212318</v>
       </c>
       <c r="E14" t="n">
-        <v>260.9307006383673</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>285.1065283636207</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>127.8884107548682</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.4997366343156</v>
       </c>
     </row>
     <row r="15">
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.777006324804134e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.211310618439711</v>
       </c>
       <c r="D41" t="n">
-        <v>4.211310618439756</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.211310618439484</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>4.211310618439815</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>727940.5737301551</v>
+        <v>727940.5737301549</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>727940.5737301551</v>
+        <v>727940.5737301549</v>
       </c>
     </row>
     <row r="7">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>751244.6494240599</v>
+        <v>751244.6494240598</v>
       </c>
       <c r="C2" t="n">
-        <v>751244.6494240597</v>
+        <v>751244.6494240595</v>
       </c>
       <c r="D2" t="n">
         <v>751244.6494240599</v>
       </c>
       <c r="E2" t="n">
-        <v>646459.3585306725</v>
+        <v>646459.3585306719</v>
       </c>
       <c r="F2" t="n">
         <v>646459.358530672</v>
       </c>
       <c r="G2" t="n">
+        <v>752875.4529688158</v>
+      </c>
+      <c r="H2" t="n">
+        <v>752875.4529688157</v>
+      </c>
+      <c r="I2" t="n">
         <v>752875.4529688155</v>
-      </c>
-      <c r="H2" t="n">
-        <v>752875.4529688159</v>
-      </c>
-      <c r="I2" t="n">
-        <v>752875.4529688153</v>
       </c>
       <c r="J2" t="n">
         <v>752875.4529688151</v>
@@ -26341,19 +26341,19 @@
         <v>752875.4529688151</v>
       </c>
       <c r="L2" t="n">
-        <v>752875.4529688152</v>
+        <v>752875.4529688151</v>
       </c>
       <c r="M2" t="n">
+        <v>752875.4529688156</v>
+      </c>
+      <c r="N2" t="n">
         <v>752875.4529688155</v>
       </c>
-      <c r="N2" t="n">
-        <v>752875.4529688156</v>
-      </c>
       <c r="O2" t="n">
-        <v>752565.37416798</v>
+        <v>752565.3741679803</v>
       </c>
       <c r="P2" t="n">
-        <v>752565.3741679799</v>
+        <v>752565.3741679803</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330237.1767665687</v>
+        <v>330237.1767665686</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80825.92855401778</v>
+        <v>80825.92855401777</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110159.5904949998</v>
+        <v>110159.5904949999</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80825.92855401778</v>
+        <v>80825.92855401769</v>
       </c>
       <c r="M3" t="n">
-        <v>97490.56653188467</v>
+        <v>97490.5665318847</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>369730.9449494623</v>
       </c>
       <c r="H4" t="n">
-        <v>369730.9449494623</v>
+        <v>369730.9449494624</v>
       </c>
       <c r="I4" t="n">
         <v>369730.9449494623</v>
@@ -26445,7 +26445,7 @@
         <v>368750.7083362449</v>
       </c>
       <c r="L4" t="n">
-        <v>368750.708336245</v>
+        <v>368750.7083362447</v>
       </c>
       <c r="M4" t="n">
         <v>369730.9449494623</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>39043.47071616944</v>
+        <v>39043.47071616943</v>
       </c>
       <c r="F5" t="n">
         <v>39043.47071616944</v>
@@ -26491,22 +26491,22 @@
         <v>47537.16445067909</v>
       </c>
       <c r="J5" t="n">
+        <v>58682.56245291988</v>
+      </c>
+      <c r="K5" t="n">
         <v>58682.56245291985</v>
       </c>
-      <c r="K5" t="n">
-        <v>58682.56245291984</v>
-      </c>
       <c r="L5" t="n">
-        <v>58682.56245291984</v>
+        <v>58682.56245291985</v>
       </c>
       <c r="M5" t="n">
         <v>47537.16445067909</v>
       </c>
       <c r="N5" t="n">
-        <v>47537.16445067909</v>
+        <v>47537.16445067908</v>
       </c>
       <c r="O5" t="n">
-        <v>47737.18701587662</v>
+        <v>47737.18701587661</v>
       </c>
       <c r="P5" t="n">
         <v>47737.18701587662</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284996.4951621679</v>
+        <v>284992.0875850198</v>
       </c>
       <c r="C6" t="n">
-        <v>284996.4951621677</v>
+        <v>284992.0875850196</v>
       </c>
       <c r="D6" t="n">
-        <v>284996.4951621679</v>
+        <v>284992.0875850199</v>
       </c>
       <c r="E6" t="n">
-        <v>-27149.54335782175</v>
+        <v>-27437.15442387124</v>
       </c>
       <c r="F6" t="n">
-        <v>303087.6334087464</v>
+        <v>302800.0223426974</v>
       </c>
       <c r="G6" t="n">
-        <v>254781.4150146563</v>
+        <v>254781.4150146566</v>
       </c>
       <c r="H6" t="n">
-        <v>335607.3435686745</v>
+        <v>335607.3435686742</v>
       </c>
       <c r="I6" t="n">
-        <v>335607.3435686739</v>
+        <v>335607.3435686741</v>
       </c>
       <c r="J6" t="n">
-        <v>215282.5916846506</v>
+        <v>215282.5916846504</v>
       </c>
       <c r="K6" t="n">
         <v>325442.1821796504</v>
       </c>
       <c r="L6" t="n">
-        <v>244616.2536256326</v>
+        <v>244616.2536256328</v>
       </c>
       <c r="M6" t="n">
-        <v>238116.7770367893</v>
+        <v>238116.7770367895</v>
       </c>
       <c r="N6" t="n">
-        <v>335607.3435686742</v>
+        <v>335607.3435686741</v>
       </c>
       <c r="O6" t="n">
-        <v>302971.5399747225</v>
+        <v>302970.7019239098</v>
       </c>
       <c r="P6" t="n">
-        <v>335413.2728330531</v>
+        <v>335412.4347822404</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>142.0897534422741</v>
       </c>
       <c r="K2" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="L2" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="M2" t="n">
         <v>223.2197458094424</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643074</v>
       </c>
       <c r="F3" t="n">
         <v>130.9642142643074</v>
@@ -26774,10 +26774,10 @@
         <v>130.9642142643074</v>
       </c>
       <c r="O3" t="n">
-        <v>130.9642142643074</v>
+        <v>130.9642142643073</v>
       </c>
       <c r="P3" t="n">
-        <v>130.9642142643074</v>
+        <v>130.9642142643073</v>
       </c>
     </row>
     <row r="4">
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="F4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="G4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="H4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="I4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="J4" t="n">
-        <v>721.7466957207139</v>
+        <v>721.7466957207143</v>
       </c>
       <c r="K4" t="n">
-        <v>721.7466957207138</v>
+        <v>721.746695720714</v>
       </c>
       <c r="L4" t="n">
-        <v>721.7466957207138</v>
+        <v>721.746695720714</v>
       </c>
       <c r="M4" t="n">
         <v>426.254667257618</v>
       </c>
       <c r="N4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="O4" t="n">
         <v>433.0833406895457</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.05734274975195</v>
+        <v>41.05734274975192</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.0324106925222</v>
+        <v>101.0324106925221</v>
       </c>
       <c r="M2" t="n">
-        <v>81.1299923671682</v>
+        <v>81.12999236716834</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.49800721032987</v>
+        <v>38.49800721032985</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643074</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>295.4920284630959</v>
+        <v>295.4920284630964</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>130.7626387945222</v>
+        <v>130.7626387945219</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.828673431927712</v>
+        <v>6.828673431927825</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.05734274975195</v>
+        <v>41.05734274975192</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>108.7787389851773</v>
+        <v>108.7787389851774</v>
       </c>
       <c r="S11" t="n">
         <v>122.1873351169202</v>
@@ -28169,7 +28169,7 @@
         <v>122.1873351169202</v>
       </c>
       <c r="C12" t="n">
-        <v>122.1873351169202</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>122.1873351169202</v>
@@ -28178,16 +28178,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>6.104012086724595</v>
+      </c>
+      <c r="G12" t="n">
         <v>122.1873351169202</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>107.7419192975101</v>
       </c>
       <c r="I12" t="n">
-        <v>37.92653511051417</v>
+        <v>76.80477854118098</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.20507959952955</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>122.1873351169202</v>
       </c>
       <c r="U12" t="n">
         <v>122.1873351169202</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>122.1873351169202</v>
       </c>
       <c r="W12" t="n">
-        <v>122.1873351169202</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>122.1873351169202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28403,16 +28403,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>83.30909168625365</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>122.1873351169202</v>
       </c>
       <c r="D15" t="n">
         <v>122.1873351169202</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>122.1873351169202</v>
       </c>
       <c r="F15" t="n">
         <v>122.1873351169202</v>
@@ -28457,22 +28457,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>83.30909168625341</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>122.1873351169202</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>122.1873351169202</v>
-      </c>
-      <c r="X15" t="n">
-        <v>122.1873351169202</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28518,7 +28518,7 @@
         <v>122.1873351169202</v>
       </c>
       <c r="N16" t="n">
-        <v>122.1873351169202</v>
+        <v>122.1873351169206</v>
       </c>
       <c r="O16" t="n">
         <v>122.1873351169202</v>
@@ -28527,7 +28527,7 @@
         <v>122.1873351169202</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.187335116921</v>
+        <v>122.1873351169202</v>
       </c>
       <c r="R16" t="n">
         <v>122.1873351169202</v>
@@ -28646,19 +28646,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7415135932285</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.7419192975101</v>
       </c>
       <c r="I18" t="n">
         <v>76.80477854118098</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>163.7292228923487</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28700,16 +28700,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>98.83709627371056</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>96.81577217572007</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.98510352193775</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>162.7723115427124</v>
       </c>
       <c r="S19" t="n">
-        <v>22.52269596181918</v>
+        <v>218.2416955065918</v>
       </c>
       <c r="T19" t="n">
         <v>223.2197458094424</v>
@@ -28782,7 +28782,7 @@
         <v>223.2197458094424</v>
       </c>
       <c r="W19" t="n">
-        <v>223.2197458094424</v>
+        <v>87.48584978660759</v>
       </c>
       <c r="X19" t="n">
         <v>223.2197458094424</v>
@@ -28886,7 +28886,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28925,22 +28925,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.20507959952955</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7292228923487</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.2470968808262</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>223.2197458094424</v>
       </c>
-      <c r="V21" t="n">
-        <v>19.2904436123992</v>
-      </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>104.1913123971037</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.98510352193775</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>162.7723115427124</v>
       </c>
       <c r="S22" t="n">
-        <v>202.606387452503</v>
+        <v>218.2416955065918</v>
       </c>
       <c r="T22" t="n">
         <v>223.2197458094424</v>
@@ -29016,7 +29016,7 @@
         <v>223.2197458094424</v>
       </c>
       <c r="V22" t="n">
-        <v>223.2197458094424</v>
+        <v>87.48584978660759</v>
       </c>
       <c r="W22" t="n">
         <v>223.2197458094424</v>
@@ -29114,25 +29114,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.7415135932285</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>107.7419192975101</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>76.80477854118098</v>
@@ -29162,25 +29162,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.20507959952955</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7292228923487</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
         <v>223.2197458094424</v>
       </c>
-      <c r="V24" t="n">
-        <v>216.5375404932255</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>65.01790054737359</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29247,7 +29247,7 @@
         <v>218.2416955065918</v>
       </c>
       <c r="T25" t="n">
-        <v>223.2197458094424</v>
+        <v>27.50074626466983</v>
       </c>
       <c r="U25" t="n">
         <v>223.2197458094424</v>
@@ -29256,7 +29256,7 @@
         <v>223.2197458094424</v>
       </c>
       <c r="W25" t="n">
-        <v>27.50074626466983</v>
+        <v>223.2197458094424</v>
       </c>
       <c r="X25" t="n">
         <v>223.2197458094424</v>
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>131.9065674405284</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29369,7 +29369,7 @@
         <v>135.7415135932285</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.7419192975101</v>
       </c>
       <c r="I27" t="n">
         <v>76.80477854118098</v>
@@ -29399,13 +29399,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.20507959952955</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>20.35365369623469</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>142.0897534422741</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29454,28 +29454,28 @@
         <v>142.0897534422741</v>
       </c>
       <c r="J28" t="n">
-        <v>72.14198108624583</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>94.19804745259219</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>142.0897534422741</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>142.0897534422741</v>
       </c>
       <c r="O28" t="n">
+        <v>84.23537861850143</v>
+      </c>
+      <c r="P28" t="n">
         <v>142.0897534422741</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
       <c r="Q28" t="n">
-        <v>59.98510352193775</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="R28" t="n">
         <v>142.0897534422741</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="C29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="D29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="E29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="F29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="G29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="H29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="I29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="J29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="K29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="L29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="M29" t="n">
-        <v>142.0897534422728</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="N29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422738</v>
       </c>
       <c r="O29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="P29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="Q29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="R29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="S29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="T29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="U29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="V29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="W29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="X29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="Y29" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
     </row>
     <row r="30">
@@ -29597,16 +29597,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>131.9065674405283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.7415135932285</v>
       </c>
       <c r="H30" t="n">
-        <v>14.00541384718855</v>
+        <v>107.7419192975101</v>
       </c>
       <c r="I30" t="n">
         <v>76.80477854118098</v>
@@ -29636,16 +29636,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.20507959952955</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>142.0897534422742</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>142.0897534422742</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>142.0897534422742</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="C31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="D31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="E31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="F31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="G31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="H31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="I31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="J31" t="n">
-        <v>142.0897534422742</v>
+        <v>72.14198108624583</v>
       </c>
       <c r="K31" t="n">
-        <v>84.23537861850093</v>
+        <v>94.19804745259285</v>
       </c>
       <c r="L31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="M31" t="n">
-        <v>142.0897534422742</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="Q31" t="n">
-        <v>142.0897534422742</v>
+        <v>59.98510352193775</v>
       </c>
       <c r="R31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="S31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="T31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="U31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="V31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="W31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="X31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.0897534422742</v>
+        <v>142.0897534422741</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="C32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="D32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="E32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="F32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="G32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="H32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="I32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="J32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="K32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="L32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="M32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="N32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="O32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="P32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="Q32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="R32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="S32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="T32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="U32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="V32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="W32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="X32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="Y32" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>142.0897534422742</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>142.0897534422742</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>142.089753442274</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>48.35324799195305</v>
       </c>
       <c r="G33" t="n">
-        <v>125.5583275914826</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>107.7419192975101</v>
@@ -29873,10 +29873,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>77.20507959952955</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>142.089753442274</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="C34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="D34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="E34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="F34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="G34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="I34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="J34" t="n">
         <v>72.14198108624583</v>
       </c>
       <c r="K34" t="n">
-        <v>142.0897534422742</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>142.0897534422742</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="N34" t="n">
-        <v>94.1980474525916</v>
+        <v>12.09339753225802</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>142.089753442274</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>142.089753442274</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.98510352193775</v>
+        <v>142.089753442274</v>
       </c>
       <c r="R34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="S34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="T34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="U34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="V34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="W34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="X34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.0897534422742</v>
+        <v>142.089753442274</v>
       </c>
     </row>
     <row r="35">
@@ -30065,19 +30065,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7415135932285</v>
       </c>
       <c r="H36" t="n">
         <v>107.7419192975101</v>
@@ -30116,7 +30116,7 @@
         <v>163.7292228923487</v>
       </c>
       <c r="T36" t="n">
-        <v>167.3660188688321</v>
+        <v>112.6982686680931</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30128,10 +30128,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30150,7 +30150,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
         <v>146.1590214098045</v>
@@ -30198,7 +30198,7 @@
         <v>223.2197458094424</v>
       </c>
       <c r="U37" t="n">
-        <v>174.4753704378691</v>
+        <v>223.2197458094424</v>
       </c>
       <c r="V37" t="n">
         <v>223.2197458094424</v>
@@ -30207,7 +30207,7 @@
         <v>223.2197458094424</v>
       </c>
       <c r="X37" t="n">
-        <v>223.2197458094424</v>
+        <v>27.50074626466994</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30311,13 +30311,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>135.7415135932285</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.7419192975101</v>
       </c>
       <c r="I39" t="n">
         <v>76.80477854118098</v>
@@ -30347,19 +30347,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.20507959952955</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>163.7292228923487</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2470968808262</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>179.226524791951</v>
+        <v>150.236388009206</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>223.2197458094424</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30432,10 +30432,10 @@
         <v>218.2416955065918</v>
       </c>
       <c r="T40" t="n">
+        <v>27.50074626466983</v>
+      </c>
+      <c r="U40" t="n">
         <v>223.2197458094424</v>
-      </c>
-      <c r="U40" t="n">
-        <v>27.50074626466983</v>
       </c>
       <c r="V40" t="n">
         <v>223.2197458094424</v>
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>27.03878773046182</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30505,10 +30505,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>109.0246931639399</v>
+        <v>108.7787389851774</v>
       </c>
       <c r="S41" t="n">
-        <v>220.6604102700203</v>
+        <v>193.8675767183215</v>
       </c>
       <c r="T41" t="n">
         <v>220.6604102700203</v>
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>118.7432522223993</v>
       </c>
       <c r="H42" t="n">
         <v>107.7419192975101</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.80477854118098</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.20507959952955</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30596,10 +30596,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>65.66085799547159</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>220.6604102700203</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>146.6564218664802</v>
       </c>
       <c r="J43" t="n">
-        <v>72.14198108624583</v>
+        <v>72.14198108624586</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>59.98510352193775</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>162.7723115427124</v>
@@ -30672,7 +30672,7 @@
         <v>220.6604102700203</v>
       </c>
       <c r="U43" t="n">
-        <v>37.7380884223582</v>
+        <v>220.6604102700203</v>
       </c>
       <c r="V43" t="n">
         <v>220.6604102700203</v>
@@ -30684,7 +30684,7 @@
         <v>220.6604102700203</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.7486738677682</v>
+        <v>95.81145554204403</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>135.8175267156388</v>
+        <v>135.8175267156392</v>
       </c>
       <c r="S44" t="n">
         <v>193.8675767183215</v>
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>80.68596630251191</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30821,16 +30821,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.20507959952955</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>12.96586261489949</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.2470968808262</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>220.6604102700203</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30839,10 +30839,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -30876,7 +30876,7 @@
         <v>146.6564218664802</v>
       </c>
       <c r="J46" t="n">
-        <v>72.14198108624583</v>
+        <v>72.14198108624586</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,16 +30897,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>59.98510352193775</v>
+        <v>59.98510352193777</v>
       </c>
       <c r="R46" t="n">
         <v>162.7723115427124</v>
       </c>
       <c r="S46" t="n">
-        <v>218.2416955065918</v>
+        <v>35.31937365892963</v>
       </c>
       <c r="T46" t="n">
-        <v>37.73808842235823</v>
+        <v>220.6604102700203</v>
       </c>
       <c r="U46" t="n">
         <v>220.6604102700203</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.526489303575105</v>
+        <v>0.5264893035751048</v>
       </c>
       <c r="H11" t="n">
-        <v>5.391908580238546</v>
+        <v>5.391908580238544</v>
       </c>
       <c r="I11" t="n">
-        <v>20.29747887607926</v>
+        <v>20.29747887607925</v>
       </c>
       <c r="J11" t="n">
-        <v>44.68512152930762</v>
+        <v>44.68512152930759</v>
       </c>
       <c r="K11" t="n">
-        <v>66.97141374964183</v>
+        <v>66.9714137496418</v>
       </c>
       <c r="L11" t="n">
-        <v>83.08396077392847</v>
+        <v>83.08396077392842</v>
       </c>
       <c r="M11" t="n">
-        <v>92.44691492638223</v>
+        <v>92.44691492638219</v>
       </c>
       <c r="N11" t="n">
-        <v>93.94280266016501</v>
+        <v>93.94280266016497</v>
       </c>
       <c r="O11" t="n">
-        <v>88.70752464774006</v>
+        <v>88.70752464774002</v>
       </c>
       <c r="P11" t="n">
-        <v>75.70981996572964</v>
+        <v>75.70981996572961</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.85492178144617</v>
+        <v>56.85492178144614</v>
       </c>
       <c r="R11" t="n">
-        <v>33.07208371569973</v>
+        <v>33.07208371569971</v>
       </c>
       <c r="S11" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521771</v>
       </c>
       <c r="T11" t="n">
-        <v>2.304706926400024</v>
+        <v>2.304706926400023</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04211914428600839</v>
+        <v>0.04211914428600838</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2816966118137935</v>
+        <v>0.2816966118137934</v>
       </c>
       <c r="H12" t="n">
-        <v>2.72059622462269</v>
+        <v>2.720596224622689</v>
       </c>
       <c r="I12" t="n">
-        <v>9.698764924290698</v>
+        <v>9.698764924290693</v>
       </c>
       <c r="J12" t="n">
-        <v>26.61415225912687</v>
+        <v>26.61415225912686</v>
       </c>
       <c r="K12" t="n">
-        <v>45.48782525065103</v>
+        <v>45.48782525065101</v>
       </c>
       <c r="L12" t="n">
-        <v>61.16399459579758</v>
+        <v>61.16399459579755</v>
       </c>
       <c r="M12" t="n">
-        <v>71.37549677404758</v>
+        <v>71.37549677404753</v>
       </c>
       <c r="N12" t="n">
-        <v>73.26459378923745</v>
+        <v>73.26459378923742</v>
       </c>
       <c r="O12" t="n">
-        <v>67.02278991694234</v>
+        <v>67.02278991694232</v>
       </c>
       <c r="P12" t="n">
-        <v>53.79169774188132</v>
+        <v>53.7916977418813</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.95832539573968</v>
+        <v>35.95832539573966</v>
       </c>
       <c r="R12" t="n">
         <v>17.48990016156167</v>
       </c>
       <c r="S12" t="n">
-        <v>5.232391013295678</v>
+        <v>5.232391013295675</v>
       </c>
       <c r="T12" t="n">
         <v>1.135435027442439</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01853267182985484</v>
+        <v>0.01853267182985483</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.2361649765421937</v>
       </c>
       <c r="H13" t="n">
-        <v>2.099721336893325</v>
+        <v>2.099721336893324</v>
       </c>
       <c r="I13" t="n">
-        <v>7.102124930923431</v>
+        <v>7.102124930923427</v>
       </c>
       <c r="J13" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153309</v>
       </c>
       <c r="K13" t="n">
-        <v>27.43807636553851</v>
+        <v>27.4380763655385</v>
       </c>
       <c r="L13" t="n">
-        <v>35.11129114882762</v>
+        <v>35.1112911488276</v>
       </c>
       <c r="M13" t="n">
-        <v>37.01993355015497</v>
+        <v>37.01993355015496</v>
       </c>
       <c r="N13" t="n">
-        <v>36.13968227395228</v>
+        <v>36.13968227395227</v>
       </c>
       <c r="O13" t="n">
-        <v>33.38084595707301</v>
+        <v>33.38084595707299</v>
       </c>
       <c r="P13" t="n">
-        <v>28.56308043561223</v>
+        <v>28.56308043561221</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391042</v>
       </c>
       <c r="R13" t="n">
         <v>10.61883612706991</v>
       </c>
       <c r="S13" t="n">
-        <v>4.115711454830776</v>
+        <v>4.115711454830774</v>
       </c>
       <c r="T13" t="n">
-        <v>1.009068536134828</v>
+        <v>1.009068536134827</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01288172599321059</v>
+        <v>0.01288172599321058</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5264893035751048</v>
+        <v>0.5264893035751043</v>
       </c>
       <c r="H41" t="n">
-        <v>5.391908580238544</v>
+        <v>5.391908580238538</v>
       </c>
       <c r="I41" t="n">
-        <v>20.29747887607925</v>
+        <v>20.29747887607923</v>
       </c>
       <c r="J41" t="n">
-        <v>44.68512152930759</v>
+        <v>44.68512152930754</v>
       </c>
       <c r="K41" t="n">
-        <v>66.9714137496418</v>
+        <v>66.97141374964173</v>
       </c>
       <c r="L41" t="n">
-        <v>83.08396077392842</v>
+        <v>83.08396077392834</v>
       </c>
       <c r="M41" t="n">
-        <v>92.44691492638219</v>
+        <v>92.44691492638209</v>
       </c>
       <c r="N41" t="n">
-        <v>93.94280266016497</v>
+        <v>93.94280266016487</v>
       </c>
       <c r="O41" t="n">
-        <v>88.70752464774002</v>
+        <v>88.70752464773992</v>
       </c>
       <c r="P41" t="n">
-        <v>75.70981996572961</v>
+        <v>75.70981996572952</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.85492178144614</v>
+        <v>56.85492178144608</v>
       </c>
       <c r="R41" t="n">
-        <v>33.07208371569971</v>
+        <v>33.07208371569968</v>
       </c>
       <c r="S41" t="n">
-        <v>11.99737500521771</v>
+        <v>11.9973750052177</v>
       </c>
       <c r="T41" t="n">
-        <v>2.304706926400023</v>
+        <v>2.30470692640002</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04211914428600838</v>
+        <v>0.04211914428600833</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2816966118137934</v>
+        <v>0.281696611813793</v>
       </c>
       <c r="H42" t="n">
-        <v>2.720596224622689</v>
+        <v>2.720596224622686</v>
       </c>
       <c r="I42" t="n">
-        <v>9.698764924290693</v>
+        <v>9.698764924290682</v>
       </c>
       <c r="J42" t="n">
-        <v>26.61415225912686</v>
+        <v>26.61415225912683</v>
       </c>
       <c r="K42" t="n">
-        <v>45.48782525065101</v>
+        <v>45.48782525065096</v>
       </c>
       <c r="L42" t="n">
-        <v>61.16399459579755</v>
+        <v>61.16399459579748</v>
       </c>
       <c r="M42" t="n">
-        <v>71.37549677404753</v>
+        <v>71.37549677404746</v>
       </c>
       <c r="N42" t="n">
-        <v>73.26459378923742</v>
+        <v>73.26459378923734</v>
       </c>
       <c r="O42" t="n">
-        <v>67.02278991694232</v>
+        <v>67.02278991694224</v>
       </c>
       <c r="P42" t="n">
-        <v>53.7916977418813</v>
+        <v>53.79169774188124</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.95832539573966</v>
+        <v>35.95832539573962</v>
       </c>
       <c r="R42" t="n">
-        <v>17.48990016156167</v>
+        <v>17.48990016156165</v>
       </c>
       <c r="S42" t="n">
-        <v>5.232391013295675</v>
+        <v>5.23239101329567</v>
       </c>
       <c r="T42" t="n">
-        <v>1.135435027442439</v>
+        <v>1.135435027442437</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01853267182985483</v>
+        <v>0.01853267182985481</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2361649765421937</v>
+        <v>0.2361649765421934</v>
       </c>
       <c r="H43" t="n">
-        <v>2.099721336893324</v>
+        <v>2.099721336893321</v>
       </c>
       <c r="I43" t="n">
-        <v>7.102124930923427</v>
+        <v>7.10212493092342</v>
       </c>
       <c r="J43" t="n">
-        <v>16.69686384153309</v>
+        <v>16.69686384153308</v>
       </c>
       <c r="K43" t="n">
-        <v>27.4380763655385</v>
+        <v>27.43807636553847</v>
       </c>
       <c r="L43" t="n">
-        <v>35.1112911488276</v>
+        <v>35.11129114882757</v>
       </c>
       <c r="M43" t="n">
-        <v>37.01993355015496</v>
+        <v>37.01993355015492</v>
       </c>
       <c r="N43" t="n">
-        <v>36.13968227395227</v>
+        <v>36.13968227395222</v>
       </c>
       <c r="O43" t="n">
-        <v>33.38084595707299</v>
+        <v>33.38084595707296</v>
       </c>
       <c r="P43" t="n">
-        <v>28.56308043561221</v>
+        <v>28.56308043561219</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.77559635391042</v>
+        <v>19.7755963539104</v>
       </c>
       <c r="R43" t="n">
-        <v>10.61883612706991</v>
+        <v>10.6188361270699</v>
       </c>
       <c r="S43" t="n">
-        <v>4.115711454830774</v>
+        <v>4.11571145483077</v>
       </c>
       <c r="T43" t="n">
-        <v>1.009068536134827</v>
+        <v>1.009068536134826</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01288172599321058</v>
+        <v>0.01288172599321057</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5264893035751048</v>
+        <v>0.5264893035751043</v>
       </c>
       <c r="H44" t="n">
-        <v>5.391908580238544</v>
+        <v>5.391908580238538</v>
       </c>
       <c r="I44" t="n">
-        <v>20.29747887607925</v>
+        <v>20.29747887607923</v>
       </c>
       <c r="J44" t="n">
-        <v>44.68512152930759</v>
+        <v>44.68512152930754</v>
       </c>
       <c r="K44" t="n">
-        <v>66.9714137496418</v>
+        <v>66.97141374964173</v>
       </c>
       <c r="L44" t="n">
-        <v>83.08396077392842</v>
+        <v>83.08396077392834</v>
       </c>
       <c r="M44" t="n">
-        <v>92.44691492638219</v>
+        <v>92.44691492638209</v>
       </c>
       <c r="N44" t="n">
-        <v>93.94280266016497</v>
+        <v>93.94280266016487</v>
       </c>
       <c r="O44" t="n">
-        <v>88.70752464774002</v>
+        <v>88.70752464773992</v>
       </c>
       <c r="P44" t="n">
-        <v>75.70981996572961</v>
+        <v>75.70981996572952</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.85492178144614</v>
+        <v>56.85492178144608</v>
       </c>
       <c r="R44" t="n">
-        <v>33.07208371569971</v>
+        <v>33.07208371569968</v>
       </c>
       <c r="S44" t="n">
-        <v>11.99737500521771</v>
+        <v>11.9973750052177</v>
       </c>
       <c r="T44" t="n">
-        <v>2.304706926400023</v>
+        <v>2.30470692640002</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04211914428600838</v>
+        <v>0.04211914428600833</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2816966118137934</v>
+        <v>0.281696611813793</v>
       </c>
       <c r="H45" t="n">
-        <v>2.720596224622689</v>
+        <v>2.720596224622686</v>
       </c>
       <c r="I45" t="n">
-        <v>9.698764924290693</v>
+        <v>9.698764924290682</v>
       </c>
       <c r="J45" t="n">
-        <v>26.61415225912686</v>
+        <v>26.61415225912683</v>
       </c>
       <c r="K45" t="n">
-        <v>45.48782525065101</v>
+        <v>45.48782525065096</v>
       </c>
       <c r="L45" t="n">
-        <v>61.16399459579755</v>
+        <v>61.16399459579748</v>
       </c>
       <c r="M45" t="n">
-        <v>71.37549677404753</v>
+        <v>71.37549677404746</v>
       </c>
       <c r="N45" t="n">
-        <v>73.26459378923742</v>
+        <v>73.26459378923734</v>
       </c>
       <c r="O45" t="n">
-        <v>67.02278991694232</v>
+        <v>67.02278991694224</v>
       </c>
       <c r="P45" t="n">
-        <v>53.7916977418813</v>
+        <v>53.79169774188124</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.95832539573966</v>
+        <v>35.95832539573962</v>
       </c>
       <c r="R45" t="n">
-        <v>17.48990016156167</v>
+        <v>17.48990016156165</v>
       </c>
       <c r="S45" t="n">
-        <v>5.232391013295675</v>
+        <v>5.23239101329567</v>
       </c>
       <c r="T45" t="n">
-        <v>1.135435027442439</v>
+        <v>1.135435027442437</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01853267182985483</v>
+        <v>0.01853267182985481</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2361649765421937</v>
+        <v>0.2361649765421934</v>
       </c>
       <c r="H46" t="n">
-        <v>2.099721336893324</v>
+        <v>2.099721336893321</v>
       </c>
       <c r="I46" t="n">
-        <v>7.102124930923427</v>
+        <v>7.10212493092342</v>
       </c>
       <c r="J46" t="n">
-        <v>16.69686384153309</v>
+        <v>16.69686384153308</v>
       </c>
       <c r="K46" t="n">
-        <v>27.4380763655385</v>
+        <v>27.43807636553847</v>
       </c>
       <c r="L46" t="n">
-        <v>35.1112911488276</v>
+        <v>35.11129114882757</v>
       </c>
       <c r="M46" t="n">
-        <v>37.01993355015496</v>
+        <v>37.01993355015492</v>
       </c>
       <c r="N46" t="n">
-        <v>36.13968227395227</v>
+        <v>36.13968227395222</v>
       </c>
       <c r="O46" t="n">
-        <v>33.38084595707299</v>
+        <v>33.38084595707296</v>
       </c>
       <c r="P46" t="n">
-        <v>28.56308043561221</v>
+        <v>28.56308043561219</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.77559635391042</v>
+        <v>19.7755963539104</v>
       </c>
       <c r="R46" t="n">
-        <v>10.61883612706991</v>
+        <v>10.6188361270699</v>
       </c>
       <c r="S46" t="n">
-        <v>4.115711454830774</v>
+        <v>4.11571145483077</v>
       </c>
       <c r="T46" t="n">
-        <v>1.009068536134827</v>
+        <v>1.009068536134826</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01288172599321058</v>
+        <v>0.01288172599321057</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.0258443947452</v>
+        <v>44.02584439474518</v>
       </c>
       <c r="K11" t="n">
         <v>189.4950380547971</v>
       </c>
       <c r="L11" t="n">
-        <v>287.5793693106592</v>
+        <v>287.5793693106593</v>
       </c>
       <c r="M11" t="n">
-        <v>335.3534123623372</v>
+        <v>335.3534123623371</v>
       </c>
       <c r="N11" t="n">
-        <v>325.1058670419524</v>
+        <v>325.1058670419523</v>
       </c>
       <c r="O11" t="n">
-        <v>260.3939570248507</v>
+        <v>260.3939570248506</v>
       </c>
       <c r="P11" t="n">
-        <v>184.9283056026838</v>
+        <v>184.9283056026837</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.91446444015878</v>
+        <v>60.91446444015876</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.08214301315202</v>
+        <v>34.08214301315201</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>186.1362687437328</v>
       </c>
       <c r="L12" t="n">
-        <v>311.7474334260178</v>
+        <v>251.870694412006</v>
       </c>
       <c r="M12" t="n">
         <v>417.1280800000796</v>
       </c>
       <c r="N12" t="n">
-        <v>214.9059333559317</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="O12" t="n">
-        <v>337.6082636314077</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>254.3679298984439</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.9564749071518</v>
+        <v>117.9564749071517</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.04535403067437</v>
+        <v>50.04535403067435</v>
       </c>
       <c r="K13" t="n">
-        <v>134.8510017646254</v>
+        <v>134.8510017646253</v>
       </c>
       <c r="L13" t="n">
         <v>194.7597564947571</v>
       </c>
       <c r="M13" t="n">
-        <v>209.4046766639838</v>
+        <v>209.4046766639837</v>
       </c>
       <c r="N13" t="n">
-        <v>212.5240370555104</v>
+        <v>212.5240370555103</v>
       </c>
       <c r="O13" t="n">
-        <v>190.1363891039643</v>
+        <v>190.1363891039642</v>
       </c>
       <c r="P13" t="n">
-        <v>156.8724374512163</v>
+        <v>156.8724374512162</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.20223159498246</v>
+        <v>62.20223159498243</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>44.02584439474518</v>
       </c>
       <c r="K14" t="n">
-        <v>189.4950380547974</v>
+        <v>189.4950380547971</v>
       </c>
       <c r="L14" t="n">
         <v>287.5793693106593</v>
@@ -35726,7 +35726,7 @@
         <v>34.08214301315201</v>
       </c>
       <c r="K15" t="n">
-        <v>186.1362687437328</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>311.7474334260177</v>
@@ -35735,16 +35735,16 @@
         <v>417.1280800000796</v>
       </c>
       <c r="N15" t="n">
-        <v>366.3779282436067</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>244.216004636873</v>
       </c>
       <c r="P15" t="n">
         <v>254.3679298984439</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.9564749071517</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.04535403067434</v>
+        <v>50.04535403067435</v>
       </c>
       <c r="K16" t="n">
-        <v>134.8510017646253</v>
+        <v>134.8510017646254</v>
       </c>
       <c r="L16" t="n">
         <v>194.7597564947571</v>
@@ -35814,16 +35814,16 @@
         <v>209.4046766639837</v>
       </c>
       <c r="N16" t="n">
-        <v>212.5240370555103</v>
+        <v>212.5240370555107</v>
       </c>
       <c r="O16" t="n">
         <v>190.1363891039642</v>
       </c>
       <c r="P16" t="n">
-        <v>156.8724374512162</v>
+        <v>156.8724374512163</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.20223159498323</v>
+        <v>62.20223159498244</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>34.08214301315201</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>43.01919599675756</v>
       </c>
       <c r="L18" t="n">
-        <v>134.4808425374835</v>
+        <v>311.7474334260177</v>
       </c>
       <c r="M18" t="n">
         <v>417.1280800000796</v>
       </c>
       <c r="N18" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="O18" t="n">
         <v>337.6082636314077</v>
       </c>
       <c r="P18" t="n">
-        <v>254.3679298984439</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>117.9564749071517</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.02584439474541</v>
+        <v>44.02584439474518</v>
       </c>
       <c r="K20" t="n">
         <v>189.4950380547971</v>
@@ -36127,7 +36127,7 @@
         <v>287.5793693106593</v>
       </c>
       <c r="M20" t="n">
-        <v>335.3534123623371</v>
+        <v>335.3534123623372</v>
       </c>
       <c r="N20" t="n">
         <v>325.1058670419523</v>
@@ -36209,16 +36209,16 @@
         <v>417.1280800000796</v>
       </c>
       <c r="N21" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="O21" t="n">
-        <v>312.4476657915843</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>194.4911908844325</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>117.9564749071517</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>134.4808425374835</v>
+        <v>311.7474334260177</v>
       </c>
       <c r="M24" t="n">
         <v>417.1280800000796</v>
       </c>
       <c r="N24" t="n">
-        <v>426.254667257618</v>
+        <v>366.9445512762354</v>
       </c>
       <c r="O24" t="n">
         <v>337.6082636314077</v>
@@ -36455,7 +36455,7 @@
         <v>254.3679298984439</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.9564749071517</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>69.94777235602831</v>
       </c>
       <c r="K28" t="n">
         <v>12.66366664770515</v>
       </c>
       <c r="L28" t="n">
-        <v>166.7704688304291</v>
+        <v>72.57242137783689</v>
       </c>
       <c r="M28" t="n">
-        <v>229.3070949893377</v>
+        <v>87.21734154706353</v>
       </c>
       <c r="N28" t="n">
         <v>232.4264553808643</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0388074293182</v>
+        <v>152.1844326055455</v>
       </c>
       <c r="P28" t="n">
-        <v>34.68510233429605</v>
+        <v>176.7748557765702</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.10464992033639</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.1155978370194</v>
+        <v>186.1155978370193</v>
       </c>
       <c r="K29" t="n">
         <v>331.5847914970713</v>
@@ -36838,10 +36838,10 @@
         <v>429.6691227529334</v>
       </c>
       <c r="M29" t="n">
-        <v>477.4431658046099</v>
+        <v>477.4431658046112</v>
       </c>
       <c r="N29" t="n">
-        <v>467.1956204842264</v>
+        <v>467.1956204842261</v>
       </c>
       <c r="O29" t="n">
         <v>402.4837104671248</v>
@@ -36853,7 +36853,7 @@
         <v>203.0042178824329</v>
       </c>
       <c r="R29" t="n">
-        <v>33.31101445709681</v>
+        <v>33.31101445709675</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.94777235602834</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>96.89904526620607</v>
+        <v>106.861714100298</v>
       </c>
       <c r="L31" t="n">
-        <v>214.6621748201111</v>
+        <v>214.662174820111</v>
       </c>
       <c r="M31" t="n">
-        <v>229.3070949893377</v>
+        <v>87.21734154706353</v>
       </c>
       <c r="N31" t="n">
         <v>90.33670193859015</v>
       </c>
       <c r="O31" t="n">
-        <v>67.94905398704405</v>
+        <v>210.0388074293182</v>
       </c>
       <c r="P31" t="n">
-        <v>34.68510233429605</v>
+        <v>176.7748557765702</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.10464992033641</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>186.1155978370194</v>
+        <v>186.1155978370192</v>
       </c>
       <c r="K32" t="n">
-        <v>331.5847914970713</v>
+        <v>331.5847914970711</v>
       </c>
       <c r="L32" t="n">
-        <v>429.6691227529334</v>
+        <v>429.6691227529333</v>
       </c>
       <c r="M32" t="n">
-        <v>477.4431658046113</v>
+        <v>477.4431658046111</v>
       </c>
       <c r="N32" t="n">
-        <v>467.1956204842265</v>
+        <v>467.1956204842263</v>
       </c>
       <c r="O32" t="n">
-        <v>402.4837104671248</v>
+        <v>402.4837104671246</v>
       </c>
       <c r="P32" t="n">
-        <v>327.0180590449579</v>
+        <v>327.0180590449578</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.0042178824329</v>
+        <v>203.0042178824328</v>
       </c>
       <c r="R32" t="n">
-        <v>33.3110144570968</v>
+        <v>33.31101445709666</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>154.7534200899793</v>
+        <v>12.66366664770515</v>
       </c>
       <c r="L34" t="n">
-        <v>214.6621748201111</v>
+        <v>72.57242137783689</v>
       </c>
       <c r="M34" t="n">
-        <v>229.3070949893377</v>
+        <v>229.3070949893375</v>
       </c>
       <c r="N34" t="n">
-        <v>184.5347493911817</v>
+        <v>102.4300994708482</v>
       </c>
       <c r="O34" t="n">
-        <v>67.94905398704405</v>
+        <v>210.0388074293181</v>
       </c>
       <c r="P34" t="n">
-        <v>34.68510233429605</v>
+        <v>176.7748557765701</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.10464992033627</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>34.08214301315201</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>186.1362687437328</v>
       </c>
       <c r="L36" t="n">
-        <v>252.4373174446353</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>417.1280800000796</v>
@@ -37397,13 +37397,13 @@
         <v>426.254667257618</v>
       </c>
       <c r="O36" t="n">
-        <v>337.6082636314077</v>
+        <v>251.8706944120062</v>
       </c>
       <c r="P36" t="n">
         <v>254.3679298984439</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>117.9564749071517</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>34.08214301315201</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>186.1362687437328</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>311.7474334260177</v>
@@ -37631,13 +37631,13 @@
         <v>417.1280800000796</v>
       </c>
       <c r="N39" t="n">
-        <v>401.0940694177947</v>
+        <v>426.2546672576179</v>
       </c>
       <c r="O39" t="n">
-        <v>337.6082636314077</v>
+        <v>278.2981476500249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>254.3679298984439</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,34 +37777,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>44.02584439474518</v>
+        <v>44.02584439474513</v>
       </c>
       <c r="K41" t="n">
-        <v>189.4950380547971</v>
+        <v>189.495038054797</v>
       </c>
       <c r="L41" t="n">
-        <v>287.5793693106593</v>
+        <v>287.5793693106592</v>
       </c>
       <c r="M41" t="n">
-        <v>335.3534123623371</v>
+        <v>362.3922000927988</v>
       </c>
       <c r="N41" t="n">
-        <v>325.1058670419523</v>
+        <v>325.1058670419522</v>
       </c>
       <c r="O41" t="n">
-        <v>260.3939570248506</v>
+        <v>260.3939570248505</v>
       </c>
       <c r="P41" t="n">
         <v>184.9283056026837</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.91446444015876</v>
+        <v>60.9144644401587</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2459541787625266</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>26.7928335516988</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>186.1362687437328</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>311.7474334260177</v>
       </c>
       <c r="M42" t="n">
-        <v>191.8918095734979</v>
+        <v>417.1280800000795</v>
       </c>
       <c r="N42" t="n">
         <v>433.0833406895457</v>
       </c>
       <c r="O42" t="n">
-        <v>337.6082636314077</v>
+        <v>337.6082636314076</v>
       </c>
       <c r="P42" t="n">
-        <v>254.3679298984439</v>
+        <v>97.31145330844323</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>117.9564749071517</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.66366664770515</v>
+        <v>12.66366664770512</v>
       </c>
       <c r="L43" t="n">
-        <v>72.57242137783689</v>
+        <v>72.57242137783686</v>
       </c>
       <c r="M43" t="n">
-        <v>87.21734154706353</v>
+        <v>87.21734154706348</v>
       </c>
       <c r="N43" t="n">
-        <v>90.33670193859015</v>
+        <v>90.33670193859012</v>
       </c>
       <c r="O43" t="n">
-        <v>67.94905398704405</v>
+        <v>67.94905398704401</v>
       </c>
       <c r="P43" t="n">
-        <v>34.68510233429605</v>
+        <v>34.68510233429603</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>44.02584439474518</v>
+        <v>44.02584439474513</v>
       </c>
       <c r="K44" t="n">
-        <v>189.4950380547971</v>
+        <v>189.495038054797</v>
       </c>
       <c r="L44" t="n">
-        <v>287.5793693106593</v>
+        <v>287.5793693106592</v>
       </c>
       <c r="M44" t="n">
-        <v>335.3534123623371</v>
+        <v>335.353412362337</v>
       </c>
       <c r="N44" t="n">
-        <v>325.1058670419523</v>
+        <v>325.1058670419522</v>
       </c>
       <c r="O44" t="n">
-        <v>260.3939570248506</v>
+        <v>260.3939570248505</v>
       </c>
       <c r="P44" t="n">
         <v>184.9283056026837</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.91446444015876</v>
+        <v>60.9144644401587</v>
       </c>
       <c r="R44" t="n">
-        <v>27.03878773046139</v>
+        <v>27.03878773046185</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>34.08214301315198</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>186.1362687437327</v>
       </c>
       <c r="L45" t="n">
-        <v>154.6909568360171</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>417.1280800000796</v>
+        <v>417.1280800000795</v>
       </c>
       <c r="N45" t="n">
         <v>433.0833406895457</v>
       </c>
       <c r="O45" t="n">
-        <v>337.6082636314077</v>
+        <v>272.0808087105401</v>
       </c>
       <c r="P45" t="n">
         <v>254.3679298984439</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.66366664770515</v>
+        <v>12.66366664770512</v>
       </c>
       <c r="L46" t="n">
-        <v>72.57242137783689</v>
+        <v>72.57242137783686</v>
       </c>
       <c r="M46" t="n">
-        <v>87.21734154706353</v>
+        <v>87.21734154706348</v>
       </c>
       <c r="N46" t="n">
-        <v>90.33670193859015</v>
+        <v>90.33670193859012</v>
       </c>
       <c r="O46" t="n">
-        <v>67.94905398704405</v>
+        <v>67.94905398704401</v>
       </c>
       <c r="P46" t="n">
-        <v>34.68510233429605</v>
+        <v>34.68510233429603</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
